--- a/Results/summary_psdLDS_5_fold_eva.xlsx
+++ b/Results/summary_psdLDS_5_fold_eva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\channelmatrix_2d\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C833FE25-70C8-4697-9D0C-CA81D71DF811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B6C4BC-DD94-495C-80A6-ABF4799244DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="66">
   <si>
     <t>Identifier</t>
   </si>
@@ -5230,7 +5230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D036BE2-578A-434B-9121-F99339399A5A}">
   <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -14490,31 +14490,31 @@
         <v>5</v>
       </c>
       <c r="Q4">
-        <v>30.701303644495191</v>
+        <v>33.002188600247408</v>
       </c>
       <c r="R4">
-        <v>11.745016597390521</v>
+        <v>6.3217908538295884</v>
       </c>
       <c r="S4">
-        <v>0.30701303644495193</v>
+        <v>0.33002188600247412</v>
       </c>
       <c r="T4">
-        <v>0.14525686506761401</v>
+        <v>0.16725076652405499</v>
       </c>
       <c r="V4" t="s">
         <v>5</v>
       </c>
       <c r="W4">
-        <v>27.805430842827359</v>
+        <v>36.158530783138261</v>
       </c>
       <c r="X4">
-        <v>21.358737161229751</v>
+        <v>32.314153767349048</v>
       </c>
       <c r="Y4">
-        <v>0.27805430842827361</v>
+        <v>0.3615853078313826</v>
       </c>
       <c r="Z4">
-        <v>0.17187962440642099</v>
+        <v>0.21282866957626631</v>
       </c>
       <c r="AB4" t="s">
         <v>5</v>
@@ -14588,31 +14588,31 @@
         <v>6</v>
       </c>
       <c r="Q5">
-        <v>55.622539987370132</v>
+        <v>48.001885829462189</v>
       </c>
       <c r="R5">
-        <v>2.9294292258952441</v>
+        <v>3.4891383195334731</v>
       </c>
       <c r="S5">
-        <v>0.55622539987370134</v>
+        <v>0.48001885829462199</v>
       </c>
       <c r="T5">
-        <v>0.46663863876399592</v>
+        <v>0.39520663138453782</v>
       </c>
       <c r="V5" t="s">
         <v>6</v>
       </c>
       <c r="W5">
-        <v>45.526604901426481</v>
+        <v>53.996487858891513</v>
       </c>
       <c r="X5">
-        <v>4.0493705181463149</v>
+        <v>2.5119275904148708</v>
       </c>
       <c r="Y5">
-        <v>0.45526604901426487</v>
+        <v>0.53996487858891506</v>
       </c>
       <c r="Z5">
-        <v>0.3555997863907211</v>
+        <v>0.45393532857006458</v>
       </c>
       <c r="AB5" t="s">
         <v>6</v>
@@ -14680,31 +14680,31 @@
         <v>7</v>
       </c>
       <c r="Q6">
-        <v>56.88665126860959</v>
+        <v>60.918606562340507</v>
       </c>
       <c r="R6">
-        <v>17.873669125232361</v>
+        <v>20.91344873622355</v>
       </c>
       <c r="S6">
-        <v>0.56886651268609589</v>
+        <v>0.60918606562340505</v>
       </c>
       <c r="T6">
-        <v>0.48019034062070409</v>
+        <v>0.52796607348730218</v>
       </c>
       <c r="V6" t="s">
         <v>7</v>
       </c>
       <c r="W6">
-        <v>69.952594745629284</v>
+        <v>69.795499961072323</v>
       </c>
       <c r="X6">
-        <v>12.71152565984327</v>
+        <v>20.930219187832758</v>
       </c>
       <c r="Y6">
-        <v>0.69952594745629282</v>
+        <v>0.69795499961072327</v>
       </c>
       <c r="Z6">
-        <v>0.66207754701372656</v>
+        <v>0.65563508120040526</v>
       </c>
       <c r="AB6" t="s">
         <v>7</v>
@@ -14772,31 +14772,31 @@
         <v>8</v>
       </c>
       <c r="Q7">
-        <v>51.571380375262763</v>
+        <v>61.844998659157952</v>
       </c>
       <c r="R7">
-        <v>3.4231952648651109</v>
+        <v>1.8349939542036979</v>
       </c>
       <c r="S7">
-        <v>0.51571380375262765</v>
+        <v>0.61844998659157946</v>
       </c>
       <c r="T7">
-        <v>0.42322919220369509</v>
+        <v>0.57145510245722142</v>
       </c>
       <c r="V7" t="s">
         <v>8</v>
       </c>
       <c r="W7">
-        <v>58.94229188833814</v>
+        <v>59.505359042898291</v>
       </c>
       <c r="X7">
-        <v>2.675058218170792</v>
+        <v>4.555655683992109</v>
       </c>
       <c r="Y7">
-        <v>0.58942291888338139</v>
+        <v>0.59505359042898287</v>
       </c>
       <c r="Z7">
-        <v>0.54162747161355784</v>
+        <v>0.56492174399879225</v>
       </c>
       <c r="AB7" t="s">
         <v>8</v>
@@ -14864,31 +14864,31 @@
         <v>9</v>
       </c>
       <c r="Q8">
-        <v>38.300677341499487</v>
+        <v>37.551708924817689</v>
       </c>
       <c r="R8">
-        <v>9.4183332227167575</v>
+        <v>10.63589299780206</v>
       </c>
       <c r="S8">
-        <v>0.38300677341499489</v>
+        <v>0.37551708924817689</v>
       </c>
       <c r="T8">
-        <v>0.23336042787963551</v>
+        <v>0.23407511682970869</v>
       </c>
       <c r="V8" t="s">
         <v>9</v>
       </c>
       <c r="W8">
-        <v>65.088192804436034</v>
+        <v>67.046946772895964</v>
       </c>
       <c r="X8">
-        <v>1.2560740542630049</v>
+        <v>2.158542417459258</v>
       </c>
       <c r="Y8">
-        <v>0.65088192804436029</v>
+        <v>0.67046946772895955</v>
       </c>
       <c r="Z8">
-        <v>0.63208153121690458</v>
+        <v>0.58048578011766716</v>
       </c>
       <c r="AB8" t="s">
         <v>9</v>
@@ -14956,31 +14956,31 @@
         <v>10</v>
       </c>
       <c r="Q9">
-        <v>89.469026548672574</v>
+        <v>93.510324483775804</v>
       </c>
       <c r="R9">
-        <v>0.25077508962954959</v>
+        <v>0.61322765542406565</v>
       </c>
       <c r="S9">
-        <v>0.8946902654867257</v>
+        <v>0.93510324483775809</v>
       </c>
       <c r="T9">
-        <v>0.89476812474803413</v>
+        <v>0.92639564932164942</v>
       </c>
       <c r="V9" t="s">
         <v>10</v>
       </c>
       <c r="W9">
-        <v>82.31948373255824</v>
+        <v>87.197640117994098</v>
       </c>
       <c r="X9">
-        <v>0.86313575139250376</v>
+        <v>1.2012574597040431</v>
       </c>
       <c r="Y9">
-        <v>0.82319483732558241</v>
+        <v>0.87197640117994091</v>
       </c>
       <c r="Z9">
-        <v>0.81423158501356885</v>
+        <v>0.86310711766639603</v>
       </c>
       <c r="AB9" t="s">
         <v>10</v>
@@ -15048,31 +15048,31 @@
         <v>11</v>
       </c>
       <c r="Q10">
-        <v>69.410721546034125</v>
+        <v>66.167786918571963</v>
       </c>
       <c r="R10">
-        <v>3.5264826966732779</v>
+        <v>4.7695690942219624</v>
       </c>
       <c r="S10">
-        <v>0.69410721546034138</v>
+        <v>0.66167786918571958</v>
       </c>
       <c r="T10">
-        <v>0.62451704756630988</v>
+        <v>0.59057721521544004</v>
       </c>
       <c r="V10" t="s">
         <v>11</v>
       </c>
       <c r="W10">
-        <v>79.62343964913191</v>
+        <v>79.422832377442717</v>
       </c>
       <c r="X10">
-        <v>1.003675596196252</v>
+        <v>1.728515310147926</v>
       </c>
       <c r="Y10">
-        <v>0.79623439649131922</v>
+        <v>0.79422832377442709</v>
       </c>
       <c r="Z10">
-        <v>0.75880917253162417</v>
+        <v>0.75698849103613575</v>
       </c>
       <c r="AB10" t="s">
         <v>11</v>
@@ -15140,31 +15140,31 @@
         <v>12</v>
       </c>
       <c r="Q11">
-        <v>77.726710438671617</v>
+        <v>86.844090346802304</v>
       </c>
       <c r="R11">
-        <v>2.5277227652739538</v>
+        <v>2.0515296527022309</v>
       </c>
       <c r="S11">
-        <v>0.77726710438671609</v>
+        <v>0.86844090346802305</v>
       </c>
       <c r="T11">
-        <v>0.73860592105477418</v>
+        <v>0.85766479484459412</v>
       </c>
       <c r="V11" t="s">
         <v>12</v>
       </c>
       <c r="W11">
-        <v>78.56356888900423</v>
+        <v>88.085191048365473</v>
       </c>
       <c r="X11">
-        <v>2.117762712543362</v>
+        <v>1.3287592796640919</v>
       </c>
       <c r="Y11">
-        <v>0.78563568889004232</v>
+        <v>0.88085191048365474</v>
       </c>
       <c r="Z11">
-        <v>0.74759086573084255</v>
+        <v>0.86565998703576719</v>
       </c>
       <c r="AB11" t="s">
         <v>12</v>
@@ -15232,31 +15232,31 @@
         <v>13</v>
       </c>
       <c r="Q12">
-        <v>84.926253687315636</v>
+        <v>87.227138643067846</v>
       </c>
       <c r="R12">
-        <v>2.0150538949073979</v>
+        <v>0.94609338033471002</v>
       </c>
       <c r="S12">
-        <v>0.84926253687315634</v>
+        <v>0.87227138643067847</v>
       </c>
       <c r="T12">
-        <v>0.83485851207482331</v>
+        <v>0.85893758679119436</v>
       </c>
       <c r="V12" t="s">
         <v>13</v>
       </c>
       <c r="W12">
-        <v>83.421828908554573</v>
+        <v>89.174041297935105</v>
       </c>
       <c r="X12">
-        <v>1.83583496377586</v>
+        <v>1.302770608355359</v>
       </c>
       <c r="Y12">
-        <v>0.83421828908554585</v>
+        <v>0.89174041297935103</v>
       </c>
       <c r="Z12">
-        <v>0.81153687236640493</v>
+        <v>0.86628567879791996</v>
       </c>
       <c r="AB12" t="s">
         <v>13</v>
@@ -15324,31 +15324,31 @@
         <v>14</v>
       </c>
       <c r="Q13">
-        <v>89.852507374631273</v>
+        <v>84.489571709097831</v>
       </c>
       <c r="R13">
-        <v>0.85118735347612517</v>
+        <v>1.6411997605319391</v>
       </c>
       <c r="S13">
-        <v>0.89852507374631263</v>
+        <v>0.84489571709097822</v>
       </c>
       <c r="T13">
-        <v>0.89051033548585612</v>
+        <v>0.82615871651971617</v>
       </c>
       <c r="V13" t="s">
         <v>14</v>
       </c>
       <c r="W13">
-        <v>88.290988676372621</v>
+        <v>89.235633526241571</v>
       </c>
       <c r="X13">
-        <v>0.7829313904648656</v>
+        <v>1.055181132287043</v>
       </c>
       <c r="Y13">
-        <v>0.88290988676372639</v>
+        <v>0.89235633526241576</v>
       </c>
       <c r="Z13">
-        <v>0.87836046810996571</v>
+        <v>0.88453565804430379</v>
       </c>
       <c r="AB13" t="s">
         <v>14</v>
@@ -15416,31 +15416,31 @@
         <v>15</v>
       </c>
       <c r="Q14">
-        <v>80.058997050147497</v>
+        <v>81.209439528023594</v>
       </c>
       <c r="R14">
-        <v>3.112245844249192</v>
+        <v>1.8450749294268789</v>
       </c>
       <c r="S14">
-        <v>0.80058997050147485</v>
+        <v>0.81209439528023597</v>
       </c>
       <c r="T14">
-        <v>0.77062616523851524</v>
+        <v>0.78811360021939647</v>
       </c>
       <c r="V14" t="s">
         <v>15</v>
       </c>
       <c r="W14">
-        <v>90.23668024809902</v>
+        <v>91.504424778761063</v>
       </c>
       <c r="X14">
-        <v>0.83371775143587767</v>
+        <v>0.50975458773725801</v>
       </c>
       <c r="Y14">
-        <v>0.90236680248099044</v>
+        <v>0.91504424778761062</v>
       </c>
       <c r="Z14">
-        <v>0.89318775695832575</v>
+        <v>0.90597836486395811</v>
       </c>
       <c r="AB14" t="s">
         <v>15</v>
@@ -15508,16 +15508,16 @@
         <v>16</v>
       </c>
       <c r="Q15">
-        <v>89.617384233427629</v>
+        <v>89.144542772861357</v>
       </c>
       <c r="R15">
-        <v>1.5174972209515809</v>
+        <v>1.3825181105064659</v>
       </c>
       <c r="S15">
-        <v>0.89617384233427622</v>
+        <v>0.89144542772861368</v>
       </c>
       <c r="T15">
-        <v>0.88920427991083917</v>
+        <v>0.88426721208572445</v>
       </c>
       <c r="V15" t="s">
         <v>16</v>
@@ -15526,13 +15526,13 @@
         <v>89.144542772861357</v>
       </c>
       <c r="X15">
-        <v>1.6262951068210061</v>
+        <v>1.3278433282190441</v>
       </c>
       <c r="Y15">
         <v>0.89144542772861368</v>
       </c>
       <c r="Z15">
-        <v>0.87913174059575583</v>
+        <v>0.87802167299135792</v>
       </c>
       <c r="AB15" t="s">
         <v>16</v>
@@ -15600,31 +15600,31 @@
         <v>17</v>
       </c>
       <c r="Q16">
-        <v>90.914454277286126</v>
+        <v>88.377581120943958</v>
       </c>
       <c r="R16">
-        <v>0.47272841462662868</v>
+        <v>1.4523125565188599</v>
       </c>
       <c r="S16">
-        <v>0.90914454277286139</v>
+        <v>0.88377581120943949</v>
       </c>
       <c r="T16">
-        <v>0.88828220528253499</v>
+        <v>0.85713963776343716</v>
       </c>
       <c r="V16" t="s">
         <v>17</v>
       </c>
       <c r="W16">
-        <v>86.047197640118</v>
+        <v>83.156342182890853</v>
       </c>
       <c r="X16">
-        <v>1.338389559855808</v>
+        <v>1.223101075663068</v>
       </c>
       <c r="Y16">
-        <v>0.86047197640117989</v>
+        <v>0.83156342182890852</v>
       </c>
       <c r="Z16">
-        <v>0.84466663827770705</v>
+        <v>0.8100556499688395</v>
       </c>
       <c r="AB16" t="s">
         <v>17</v>
@@ -15692,31 +15692,31 @@
         <v>18</v>
       </c>
       <c r="Q17">
-        <v>75.221238938053105</v>
+        <v>81.395427296083881</v>
       </c>
       <c r="R17">
-        <v>2.7267653665751359</v>
+        <v>1.281195382413961</v>
       </c>
       <c r="S17">
-        <v>0.75221238938053092</v>
+        <v>0.81395427296083867</v>
       </c>
       <c r="T17">
-        <v>0.71012638494378799</v>
+        <v>0.79135553973000838</v>
       </c>
       <c r="V17" t="s">
         <v>18</v>
       </c>
       <c r="W17">
-        <v>74.365781710914447</v>
+        <v>79.473524857481465</v>
       </c>
       <c r="X17">
-        <v>1.397090381505995</v>
+        <v>1.5915572462259959</v>
       </c>
       <c r="Y17">
-        <v>0.74365781710914458</v>
+        <v>0.7947352485748147</v>
       </c>
       <c r="Z17">
-        <v>0.71629495160271317</v>
+        <v>0.78852366147864927</v>
       </c>
       <c r="AB17" t="s">
         <v>18</v>
@@ -15784,31 +15784,31 @@
         <v>19</v>
       </c>
       <c r="Q18">
-        <v>80.301732713950813</v>
+        <v>81.120943952802364</v>
       </c>
       <c r="R18">
-        <v>1.8402404554193821</v>
+        <v>0.99112231083204283</v>
       </c>
       <c r="S18">
-        <v>0.80301732713950824</v>
+        <v>0.8112094395280236</v>
       </c>
       <c r="T18">
-        <v>0.74293226787638633</v>
+        <v>0.74801076589762094</v>
       </c>
       <c r="V18" t="s">
         <v>19</v>
       </c>
       <c r="W18">
-        <v>89.085545722713874</v>
+        <v>88.908554572271385</v>
       </c>
       <c r="X18">
-        <v>0.5521940508356844</v>
+        <v>0.59738102248247604</v>
       </c>
       <c r="Y18">
-        <v>0.89085545722713866</v>
+        <v>0.88908554572271381</v>
       </c>
       <c r="Z18">
-        <v>0.87294411030757824</v>
+        <v>0.87012881540198106</v>
       </c>
       <c r="AB18" t="s">
         <v>19</v>
@@ -15876,31 +15876,31 @@
         <v>20</v>
       </c>
       <c r="Q19">
-        <v>58.857862092232629</v>
+        <v>63.840171627782247</v>
       </c>
       <c r="R19">
-        <v>4.2858617569887532</v>
+        <v>3.4614145678576511</v>
       </c>
       <c r="S19">
-        <v>0.58857862092232627</v>
+        <v>0.6384017162778225</v>
       </c>
       <c r="T19">
-        <v>0.57441618673398254</v>
+        <v>0.62473552483071482</v>
       </c>
       <c r="V19" t="s">
         <v>20</v>
       </c>
       <c r="W19">
-        <v>70.974143374942685</v>
+        <v>73.775811209439524</v>
       </c>
       <c r="X19">
-        <v>2.7956029834553182</v>
+        <v>3.6029543273308282</v>
       </c>
       <c r="Y19">
-        <v>0.70974143374942689</v>
+        <v>0.73775811209439524</v>
       </c>
       <c r="Z19">
-        <v>0.69398103289206159</v>
+        <v>0.72044412177626505</v>
       </c>
       <c r="AB19" t="s">
         <v>20</v>
@@ -15968,31 +15968,31 @@
         <v>21</v>
       </c>
       <c r="Q20">
-        <v>77.734755490964446</v>
+        <v>91.061946902654867</v>
       </c>
       <c r="R20">
-        <v>2.1928558316058662</v>
+        <v>0.28803997946360288</v>
       </c>
       <c r="S20">
-        <v>0.77734755490964447</v>
+        <v>0.91061946902654856</v>
       </c>
       <c r="T20">
-        <v>0.72509608925466262</v>
+        <v>0.89215955886197551</v>
       </c>
       <c r="V20" t="s">
         <v>21</v>
       </c>
       <c r="W20">
-        <v>95.486725663716811</v>
+        <v>92.091367572383845</v>
       </c>
       <c r="X20">
-        <v>6.2966180156365681E-2</v>
+        <v>0.26225780381186198</v>
       </c>
       <c r="Y20">
-        <v>0.9548672566371682</v>
+        <v>0.92091367572383853</v>
       </c>
       <c r="Z20">
-        <v>0.95386014586684609</v>
+        <v>0.91590016360125848</v>
       </c>
       <c r="AB20" t="s">
         <v>21</v>
@@ -16060,31 +16060,31 @@
         <v>22</v>
       </c>
       <c r="Q21">
-        <v>91.480462633759814</v>
+        <v>95.073746312684364</v>
       </c>
       <c r="R21">
-        <v>2.2677208486003022</v>
+        <v>0.91176741128402039</v>
       </c>
       <c r="S21">
-        <v>0.91480462633759818</v>
+        <v>0.95073746312684371</v>
       </c>
       <c r="T21">
-        <v>0.88869329274421105</v>
+        <v>0.94264343112031246</v>
       </c>
       <c r="V21" t="s">
         <v>22</v>
       </c>
       <c r="W21">
-        <v>99.764011799410042</v>
+        <v>92.335054801512129</v>
       </c>
       <c r="X21">
-        <v>2.4793126113390831E-3</v>
+        <v>1.744308372345547</v>
       </c>
       <c r="Y21">
-        <v>0.99764011799410035</v>
+        <v>0.92335054801512118</v>
       </c>
       <c r="Z21">
-        <v>0.99764452028970874</v>
+        <v>0.901188676090664</v>
       </c>
       <c r="AB21" t="s">
         <v>22</v>
@@ -16152,31 +16152,31 @@
         <v>23</v>
       </c>
       <c r="Q22">
-        <v>59.646017699115042</v>
+        <v>60.520419726814247</v>
       </c>
       <c r="R22">
-        <v>13.09550978559734</v>
+        <v>5.6628205227391124</v>
       </c>
       <c r="S22">
-        <v>0.59646017699115039</v>
+        <v>0.60520419726814245</v>
       </c>
       <c r="T22">
-        <v>0.53099551102256914</v>
+        <v>0.54009003247577547</v>
       </c>
       <c r="V22" t="s">
         <v>23</v>
       </c>
       <c r="W22">
-        <v>70.125087587262868</v>
+        <v>64.909039005527731</v>
       </c>
       <c r="X22">
-        <v>10.691641425672019</v>
+        <v>3.9508830810023832</v>
       </c>
       <c r="Y22">
-        <v>0.70125087587262869</v>
+        <v>0.64909039005527736</v>
       </c>
       <c r="Z22">
-        <v>0.64379604748394459</v>
+        <v>0.59633652811807303</v>
       </c>
       <c r="AB22" t="s">
         <v>23</v>
@@ -16244,31 +16244,31 @@
         <v>24</v>
       </c>
       <c r="Q23">
-        <v>93.126843657817105</v>
+        <v>99.646017699115049</v>
       </c>
       <c r="R23">
-        <v>1.597486988968114</v>
+        <v>1.4573193054883171E-2</v>
       </c>
       <c r="S23">
-        <v>0.93126843657817115</v>
+        <v>0.9964601769911503</v>
       </c>
       <c r="T23">
-        <v>0.90916487100606691</v>
+        <v>0.99646296797241651</v>
       </c>
       <c r="V23" t="s">
         <v>24</v>
       </c>
       <c r="W23">
-        <v>99.705014749262531</v>
+        <v>98.116765715966409</v>
       </c>
       <c r="X23">
-        <v>6.6410075762365281E-3</v>
+        <v>6.2811741232542045E-2</v>
       </c>
       <c r="Y23">
-        <v>0.99705014749262533</v>
+        <v>0.98116765715966403</v>
       </c>
       <c r="Z23">
-        <v>0.99706378870597201</v>
+        <v>0.9810362239918764</v>
       </c>
       <c r="AB23" t="s">
         <v>24</v>
@@ -16336,31 +16336,31 @@
         <v>25</v>
       </c>
       <c r="Q24">
-        <v>60.7539857611225</v>
+        <v>45.802818363480647</v>
       </c>
       <c r="R24">
-        <v>2.5728091933912909</v>
+        <v>3.911352395144847</v>
       </c>
       <c r="S24">
-        <v>0.60753985761122498</v>
+        <v>0.45802818363480657</v>
       </c>
       <c r="T24">
-        <v>0.56184947862133894</v>
+        <v>0.38128725101466981</v>
       </c>
       <c r="V24" t="s">
         <v>25</v>
       </c>
       <c r="W24">
-        <v>74.255659651035046</v>
+        <v>69.187968754054964</v>
       </c>
       <c r="X24">
-        <v>1.5929157063275741</v>
+        <v>2.4835500157395041</v>
       </c>
       <c r="Y24">
-        <v>0.74255659651035044</v>
+        <v>0.69187968754054963</v>
       </c>
       <c r="Z24">
-        <v>0.68546651145466153</v>
+        <v>0.65856889215562042</v>
       </c>
       <c r="AB24" t="s">
         <v>25</v>
@@ -16428,31 +16428,31 @@
         <v>26</v>
       </c>
       <c r="Q25">
-        <v>86.873156342182895</v>
+        <v>84.859730620507094</v>
       </c>
       <c r="R25">
-        <v>0.88456301204896159</v>
+        <v>1.8077602931584651</v>
       </c>
       <c r="S25">
-        <v>0.86873156342182889</v>
+        <v>0.84859730620507112</v>
       </c>
       <c r="T25">
-        <v>0.84969604855368264</v>
+        <v>0.83716513297187123</v>
       </c>
       <c r="V25" t="s">
         <v>26</v>
       </c>
       <c r="W25">
-        <v>82.182890855457231</v>
+        <v>84.601769911504419</v>
       </c>
       <c r="X25">
-        <v>1.7695409194508429</v>
+        <v>1.2083686830781439</v>
       </c>
       <c r="Y25">
-        <v>0.82182890855457225</v>
+        <v>0.84601769911504421</v>
       </c>
       <c r="Z25">
-        <v>0.79783468587590778</v>
+        <v>0.81923599564885574</v>
       </c>
       <c r="AB25" t="s">
         <v>26</v>
@@ -16520,31 +16520,31 @@
         <v>27</v>
       </c>
       <c r="Q26">
-        <v>80.822065934826426</v>
+        <v>80.966271334527121</v>
       </c>
       <c r="R26">
-        <v>1.2504729353527759</v>
+        <v>2.2963791145742838</v>
       </c>
       <c r="S26">
-        <v>0.80822065934826415</v>
+        <v>0.80966271334527118</v>
       </c>
       <c r="T26">
-        <v>0.79547902476102839</v>
+        <v>0.79260214181919897</v>
       </c>
       <c r="V26" t="s">
         <v>27</v>
       </c>
       <c r="W26">
-        <v>83.417590117561573</v>
+        <v>86.595385773233332</v>
       </c>
       <c r="X26">
-        <v>1.7157174295443229</v>
+        <v>1.2466941877278011</v>
       </c>
       <c r="Y26">
-        <v>0.83417590117561569</v>
+        <v>0.86595385773233335</v>
       </c>
       <c r="Z26">
-        <v>0.81015158257475339</v>
+        <v>0.84104373901055707</v>
       </c>
       <c r="AB26" t="s">
         <v>27</v>
@@ -16612,31 +16612,31 @@
         <v>28</v>
       </c>
       <c r="Q27">
-        <v>97.551622418879063</v>
+        <v>86.843657817109147</v>
       </c>
       <c r="R27">
-        <v>0.17769941729809441</v>
+        <v>2.541190687433966</v>
       </c>
       <c r="S27">
-        <v>0.97551622418879058</v>
+        <v>0.86843657817109143</v>
       </c>
       <c r="T27">
-        <v>0.97491988554783315</v>
+        <v>0.84203191862146698</v>
       </c>
       <c r="V27" t="s">
         <v>28</v>
       </c>
       <c r="W27">
-        <v>95.666311992318271</v>
+        <v>96.312684365781706</v>
       </c>
       <c r="X27">
-        <v>0.27658596118877959</v>
+        <v>0.24391719920212651</v>
       </c>
       <c r="Y27">
-        <v>0.95666311992318265</v>
+        <v>0.96312684365781709</v>
       </c>
       <c r="Z27">
-        <v>0.95599383013765382</v>
+        <v>0.96297965513530459</v>
       </c>
       <c r="AB27" t="s">
         <v>28</v>
@@ -16704,31 +16704,31 @@
         <v>29</v>
       </c>
       <c r="Q28">
-        <v>83.751330028806478</v>
+        <v>85.752212389380531</v>
       </c>
       <c r="R28">
-        <v>1.0546582067688091</v>
+        <v>0.97089331068322959</v>
       </c>
       <c r="S28">
-        <v>0.83751330028806481</v>
+        <v>0.85752212389380522</v>
       </c>
       <c r="T28">
-        <v>0.83256776925408393</v>
+        <v>0.85757616528133729</v>
       </c>
       <c r="V28" t="s">
         <v>29</v>
       </c>
       <c r="W28">
-        <v>83.959895846849889</v>
+        <v>85.634218289085538</v>
       </c>
       <c r="X28">
-        <v>0.71132844252934579</v>
+        <v>0.78957189617338763</v>
       </c>
       <c r="Y28">
-        <v>0.83959895846849886</v>
+        <v>0.8563421828908554</v>
       </c>
       <c r="Z28">
-        <v>0.83818279256888883</v>
+        <v>0.8506881610545125</v>
       </c>
       <c r="AB28" t="s">
         <v>29</v>
@@ -16796,31 +16796,31 @@
         <v>30</v>
       </c>
       <c r="Q29">
-        <v>88.318584070796462</v>
+        <v>90.029498525073748</v>
       </c>
       <c r="R29">
-        <v>2.269989167473907</v>
+        <v>1.459482744771105</v>
       </c>
       <c r="S29">
-        <v>0.88318584070796469</v>
+        <v>0.90029498525073737</v>
       </c>
       <c r="T29">
-        <v>0.8580294502369693</v>
+        <v>0.87784912460635667</v>
       </c>
       <c r="V29" t="s">
         <v>30</v>
       </c>
       <c r="W29">
-        <v>92.949852507374629</v>
+        <v>92.684365781710909</v>
       </c>
       <c r="X29">
-        <v>0.7118033701021752</v>
+        <v>0.40998247129169868</v>
       </c>
       <c r="Y29">
-        <v>0.92949852507374631</v>
+        <v>0.92684365781710909</v>
       </c>
       <c r="Z29">
-        <v>0.90739363286177765</v>
+        <v>0.90477307512669325</v>
       </c>
       <c r="AB29" t="s">
         <v>30</v>
@@ -16888,31 +16888,31 @@
         <v>31</v>
       </c>
       <c r="Q30">
-        <v>91.134784902983583</v>
+        <v>90.2453308419623</v>
       </c>
       <c r="R30">
-        <v>0.55454254657211099</v>
+        <v>0.4523137625199018</v>
       </c>
       <c r="S30">
-        <v>0.9113478490298359</v>
+        <v>0.90245330841962301</v>
       </c>
       <c r="T30">
-        <v>0.90232344345865623</v>
+        <v>0.89358789259165905</v>
       </c>
       <c r="V30" t="s">
         <v>31</v>
       </c>
       <c r="W30">
-        <v>95.60471976401179</v>
+        <v>97.109144542772853</v>
       </c>
       <c r="X30">
-        <v>8.7272910116007296E-2</v>
+        <v>6.6212203623709207E-2</v>
       </c>
       <c r="Y30">
-        <v>0.95604719764011803</v>
+        <v>0.97109144542772863</v>
       </c>
       <c r="Z30">
-        <v>0.95438503349989623</v>
+        <v>0.97035416924339146</v>
       </c>
       <c r="AB30" t="s">
         <v>31</v>
@@ -16980,31 +16980,31 @@
         <v>32</v>
       </c>
       <c r="Q31">
-        <v>93.009541605031188</v>
+        <v>89.104923052967592</v>
       </c>
       <c r="R31">
-        <v>1.7879999759814551</v>
+        <v>1.0034528112438259</v>
       </c>
       <c r="S31">
-        <v>0.93009541605031187</v>
+        <v>0.89104923052967577</v>
       </c>
       <c r="T31">
-        <v>0.90799237539433586</v>
+        <v>0.88352308419945991</v>
       </c>
       <c r="V31" t="s">
         <v>32</v>
       </c>
       <c r="W31">
-        <v>82.58064516129032</v>
+        <v>78.089862369051644</v>
       </c>
       <c r="X31">
-        <v>2.056747802700142</v>
+        <v>3.2526219568910619</v>
       </c>
       <c r="Y31">
-        <v>0.82580645161290323</v>
+        <v>0.78089862369051644</v>
       </c>
       <c r="Z31">
-        <v>0.80122291683190083</v>
+        <v>0.75567645626105473</v>
       </c>
       <c r="AB31" t="s">
         <v>32</v>
@@ -17072,31 +17072,31 @@
         <v>33</v>
       </c>
       <c r="Q32">
-        <v>68.764781702263861</v>
+        <v>77.100580454848227</v>
       </c>
       <c r="R32">
-        <v>1.4716289681206489</v>
+        <v>0.98318969799559763</v>
       </c>
       <c r="S32">
-        <v>0.68764781702263866</v>
+        <v>0.77100580454848222</v>
       </c>
       <c r="T32">
-        <v>0.62342717185075958</v>
+        <v>0.74936236652115018</v>
       </c>
       <c r="V32" t="s">
         <v>33</v>
       </c>
       <c r="W32">
-        <v>73.046220123011452</v>
+        <v>70.601129767558547</v>
       </c>
       <c r="X32">
-        <v>1.363455535151441</v>
+        <v>1.3089919634960081</v>
       </c>
       <c r="Y32">
-        <v>0.73046220123011441</v>
+        <v>0.70601129767558546</v>
       </c>
       <c r="Z32">
-        <v>0.6811080998230914</v>
+        <v>0.68168885900137277</v>
       </c>
       <c r="AB32" t="s">
         <v>33</v>
@@ -17164,31 +17164,31 @@
         <v>34</v>
       </c>
       <c r="Q33">
-        <v>87.846607669616517</v>
+        <v>85.881971297329557</v>
       </c>
       <c r="R33">
-        <v>0.81352532739571903</v>
+        <v>1.233543714936409</v>
       </c>
       <c r="S33">
-        <v>0.87846607669616517</v>
+        <v>0.85881971297329562</v>
       </c>
       <c r="T33">
-        <v>0.85816931299359678</v>
+        <v>0.8408894456213426</v>
       </c>
       <c r="V33" t="s">
         <v>34</v>
       </c>
       <c r="W33">
-        <v>83.461535134386978</v>
+        <v>85.398230088495581</v>
       </c>
       <c r="X33">
-        <v>1.205427244425165</v>
+        <v>1.0327159141863911</v>
       </c>
       <c r="Y33">
-        <v>0.83461535134386966</v>
+        <v>0.85398230088495575</v>
       </c>
       <c r="Z33">
-        <v>0.81464355913836495</v>
+        <v>0.83974737521042131</v>
       </c>
       <c r="AB33" t="s">
         <v>34</v>
@@ -17256,31 +17256,31 @@
         <v>35</v>
       </c>
       <c r="Q34">
-        <v>92.189638318670575</v>
+        <v>93.185840707964601</v>
       </c>
       <c r="R34">
-        <v>0.5314302079025689</v>
+        <v>0.35499179266513731</v>
       </c>
       <c r="S34">
-        <v>0.92189638318670575</v>
+        <v>0.93185840707964596</v>
       </c>
       <c r="T34">
-        <v>0.91901142208885145</v>
+        <v>0.92707897404849537</v>
       </c>
       <c r="V34" t="s">
         <v>35</v>
       </c>
       <c r="W34">
-        <v>91.976401179941007</v>
+        <v>91.946902654867259</v>
       </c>
       <c r="X34">
-        <v>0.40776411464359408</v>
+        <v>0.39085453698037981</v>
       </c>
       <c r="Y34">
-        <v>0.91976401179940992</v>
+        <v>0.91946902654867257</v>
       </c>
       <c r="Z34">
-        <v>0.91667336911314179</v>
+        <v>0.919502596920311</v>
       </c>
       <c r="AB34" t="s">
         <v>35</v>
@@ -17348,31 +17348,31 @@
         <v>36</v>
       </c>
       <c r="Q35">
-        <v>98.141592920353986</v>
+        <v>99.262536873156336</v>
       </c>
       <c r="R35">
-        <v>0.27782037465429171</v>
+        <v>1.439744607847449E-2</v>
       </c>
       <c r="S35">
-        <v>0.98141592920353982</v>
+        <v>0.99262536873156348</v>
       </c>
       <c r="T35">
-        <v>0.98106163626031617</v>
+        <v>0.99260256529535928</v>
       </c>
       <c r="V35" t="s">
         <v>36</v>
       </c>
       <c r="W35">
-        <v>97.964601769911511</v>
+        <v>96.135693215339231</v>
       </c>
       <c r="X35">
-        <v>5.0281975261159552E-2</v>
+        <v>0.27736030852775589</v>
       </c>
       <c r="Y35">
-        <v>0.97964601769911508</v>
+        <v>0.96135693215339235</v>
       </c>
       <c r="Z35">
-        <v>0.97968053750325945</v>
+        <v>0.96134329854193123</v>
       </c>
       <c r="AB35" t="s">
         <v>36</v>
@@ -17440,31 +17440,31 @@
         <v>37</v>
       </c>
       <c r="Q36">
-        <v>93.834808259587021</v>
+        <v>97.551622418879063</v>
       </c>
       <c r="R36">
-        <v>0.80496981472855289</v>
+        <v>0.6270908456482478</v>
       </c>
       <c r="S36">
-        <v>0.93834808259587033</v>
+        <v>0.97551622418879058</v>
       </c>
       <c r="T36">
-        <v>0.93700165844956551</v>
+        <v>0.97470067247066117</v>
       </c>
       <c r="V36" t="s">
         <v>37</v>
       </c>
       <c r="W36">
-        <v>95.309734513274336</v>
+        <v>94.926253687315636</v>
       </c>
       <c r="X36">
-        <v>0.99285494225405269</v>
+        <v>1.161235885837653</v>
       </c>
       <c r="Y36">
-        <v>0.95309734513274336</v>
+        <v>0.94926253687315632</v>
       </c>
       <c r="Z36">
-        <v>0.95189030053716728</v>
+        <v>0.94833455887305218</v>
       </c>
       <c r="AB36" t="s">
         <v>37</v>
@@ -17532,31 +17532,31 @@
         <v>38</v>
       </c>
       <c r="Q37">
-        <v>94.778761061946895</v>
+        <v>95.899705014749259</v>
       </c>
       <c r="R37">
-        <v>0.368203433004614</v>
+        <v>0.29547405045183639</v>
       </c>
       <c r="S37">
-        <v>0.94778761061946903</v>
+        <v>0.9589970501474927</v>
       </c>
       <c r="T37">
-        <v>0.94834466502423942</v>
+        <v>0.95793334191772384</v>
       </c>
       <c r="V37" t="s">
         <v>38</v>
       </c>
       <c r="W37">
-        <v>90.769729841953648</v>
+        <v>93.657817109144545</v>
       </c>
       <c r="X37">
-        <v>0.64236682434587833</v>
+        <v>1.1565524656359329</v>
       </c>
       <c r="Y37">
-        <v>0.9076972984195365</v>
+        <v>0.93657817109144548</v>
       </c>
       <c r="Z37">
-        <v>0.90756603819115989</v>
+        <v>0.9354601265564868</v>
       </c>
       <c r="AB37" t="s">
         <v>38</v>
@@ -17624,31 +17624,31 @@
         <v>39</v>
       </c>
       <c r="Q38">
-        <v>71.229335893909109</v>
+        <v>67.244266818917112</v>
       </c>
       <c r="R38">
-        <v>1.6113860245419851</v>
+        <v>1.1572908422047781</v>
       </c>
       <c r="S38">
-        <v>0.71229335893909118</v>
+        <v>0.6724426681891712</v>
       </c>
       <c r="T38">
-        <v>0.6685805661741373</v>
+        <v>0.63279042103292049</v>
       </c>
       <c r="V38" t="s">
         <v>39</v>
       </c>
       <c r="W38">
-        <v>62.934194932482107</v>
+        <v>64.805491396984408</v>
       </c>
       <c r="X38">
-        <v>3.0133717844920591</v>
+        <v>1.9241700820302869</v>
       </c>
       <c r="Y38">
-        <v>0.62934194932482113</v>
+        <v>0.64805491396984405</v>
       </c>
       <c r="Z38">
-        <v>0.58099566741601394</v>
+        <v>0.59429903154397468</v>
       </c>
       <c r="AB38" t="s">
         <v>39</v>
@@ -17716,31 +17716,31 @@
         <v>40</v>
       </c>
       <c r="Q39">
-        <v>96.755162241887916</v>
+        <v>96.342182890855455</v>
       </c>
       <c r="R39">
-        <v>0.14989200366615371</v>
+        <v>0.27998797864193098</v>
       </c>
       <c r="S39">
-        <v>0.96755162241887904</v>
+        <v>0.96342182890855455</v>
       </c>
       <c r="T39">
-        <v>0.96724528683502997</v>
+        <v>0.96309339372043878</v>
       </c>
       <c r="V39" t="s">
         <v>40</v>
       </c>
       <c r="W39">
-        <v>87.492625368731552</v>
+        <v>87.923943978754139</v>
       </c>
       <c r="X39">
-        <v>0.85976058671619615</v>
+        <v>0.68634235986589198</v>
       </c>
       <c r="Y39">
-        <v>0.87492625368731569</v>
+        <v>0.87923943978754138</v>
       </c>
       <c r="Z39">
-        <v>0.85323456221085647</v>
+        <v>0.87221259553832908</v>
       </c>
       <c r="AB39" t="s">
         <v>40</v>
@@ -17808,31 +17808,31 @@
         <v>41</v>
       </c>
       <c r="Q40">
-        <v>86.371681415929203</v>
+        <v>69.595238713137661</v>
       </c>
       <c r="R40">
-        <v>2.1894432029256961</v>
+        <v>4.397944984836764</v>
       </c>
       <c r="S40">
-        <v>0.86371681415929191</v>
+        <v>0.69595238713137664</v>
       </c>
       <c r="T40">
-        <v>0.84700665925997853</v>
+        <v>0.68406890054391356</v>
       </c>
       <c r="V40" t="s">
         <v>41</v>
       </c>
       <c r="W40">
-        <v>73.088694538880091</v>
+        <v>85.191740412979357</v>
       </c>
       <c r="X40">
-        <v>3.8488144944945382</v>
+        <v>1.9611491433257811</v>
       </c>
       <c r="Y40">
-        <v>0.73088694538880095</v>
+        <v>0.85191740412979355</v>
       </c>
       <c r="Z40">
-        <v>0.71333171419071739</v>
+        <v>0.85024660155630571</v>
       </c>
       <c r="AB40" t="s">
         <v>41</v>
@@ -17900,31 +17900,31 @@
         <v>42</v>
       </c>
       <c r="Q41">
-        <v>97.433628318584084</v>
+        <v>91.774842342926846</v>
       </c>
       <c r="R41">
-        <v>5.3640364707282083E-2</v>
+        <v>0.21400317723958151</v>
       </c>
       <c r="S41">
-        <v>0.97433628318584076</v>
+        <v>0.91774842342926843</v>
       </c>
       <c r="T41">
-        <v>0.97371940154392722</v>
+        <v>0.90555831995825264</v>
       </c>
       <c r="V41" t="s">
         <v>42</v>
       </c>
       <c r="W41">
-        <v>95.21232882637392</v>
+        <v>93.893805309734518</v>
       </c>
       <c r="X41">
-        <v>9.0640552188655604E-2</v>
+        <v>0.91529710651553464</v>
       </c>
       <c r="Y41">
-        <v>0.95212328826373938</v>
+        <v>0.93893805309734513</v>
       </c>
       <c r="Z41">
-        <v>0.95006088761106822</v>
+        <v>0.93853248323821625</v>
       </c>
       <c r="AB41" t="s">
         <v>42</v>
@@ -17992,31 +17992,31 @@
         <v>43</v>
       </c>
       <c r="Q42">
-        <v>83.805309734513273</v>
+        <v>98.204569243678577</v>
       </c>
       <c r="R42">
-        <v>1.470571071933424</v>
+        <v>2.796462385014226E-2</v>
       </c>
       <c r="S42">
-        <v>0.83805309734513267</v>
+        <v>0.98204569243678574</v>
       </c>
       <c r="T42">
-        <v>0.79939787059287126</v>
+        <v>0.98201545844144689</v>
       </c>
       <c r="V42" t="s">
         <v>43</v>
       </c>
       <c r="W42">
-        <v>91.628560800698963</v>
+        <v>89.766433965691746</v>
       </c>
       <c r="X42">
-        <v>0.85687848336732719</v>
+        <v>2.1537384693915249</v>
       </c>
       <c r="Y42">
-        <v>0.91628560800698966</v>
+        <v>0.8976643396569175</v>
       </c>
       <c r="Z42">
-        <v>0.89310071739564945</v>
+        <v>0.87661140311928598</v>
       </c>
       <c r="AB42" t="s">
         <v>43</v>
@@ -18084,31 +18084,31 @@
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>59.822489813925721</v>
+        <v>63.066029982958327</v>
       </c>
       <c r="R43">
-        <v>4.6165145347194514</v>
+        <v>3.5944067962306581</v>
       </c>
       <c r="S43">
-        <v>0.59822489813925728</v>
+        <v>0.63066029982958338</v>
       </c>
       <c r="T43">
-        <v>0.57469695086836237</v>
+        <v>0.59767338614934018</v>
       </c>
       <c r="V43" t="s">
         <v>44</v>
       </c>
       <c r="W43">
-        <v>71.888943675983356</v>
+        <v>80.541354163963348</v>
       </c>
       <c r="X43">
-        <v>1.8099593624326871</v>
+        <v>2.0166646446466401</v>
       </c>
       <c r="Y43">
-        <v>0.71888943675983352</v>
+        <v>0.80541354163963352</v>
       </c>
       <c r="Z43">
-        <v>0.68834991827361769</v>
+        <v>0.77116117145877061</v>
       </c>
       <c r="AB43" t="s">
         <v>44</v>
@@ -18176,31 +18176,31 @@
         <v>45</v>
       </c>
       <c r="Q44">
-        <v>85.585255927819446</v>
+        <v>89.941002949852503</v>
       </c>
       <c r="R44">
-        <v>1.7573371895396059</v>
+        <v>1.1539791539265889</v>
       </c>
       <c r="S44">
-        <v>0.85585255927819437</v>
+        <v>0.89941002949852522</v>
       </c>
       <c r="T44">
-        <v>0.84368047539470203</v>
+        <v>0.89133818108000296</v>
       </c>
       <c r="V44" t="s">
         <v>45</v>
       </c>
       <c r="W44">
-        <v>88.053097345132741</v>
+        <v>77.704391906504384</v>
       </c>
       <c r="X44">
-        <v>2.8767505602429422</v>
+        <v>3.977026817026057</v>
       </c>
       <c r="Y44">
-        <v>0.88053097345132747</v>
+        <v>0.77704391906504378</v>
       </c>
       <c r="Z44">
-        <v>0.8749803432343406</v>
+        <v>0.76693510939024501</v>
       </c>
       <c r="AB44" t="s">
         <v>45</v>
@@ -18268,31 +18268,31 @@
         <v>46</v>
       </c>
       <c r="Q45">
-        <v>84.365781710914447</v>
+        <v>84.690265486725664</v>
       </c>
       <c r="R45">
-        <v>0.88353997091693892</v>
+        <v>1.8541061434079631</v>
       </c>
       <c r="S45">
-        <v>0.84365781710914456</v>
+        <v>0.84690265486725669</v>
       </c>
       <c r="T45">
-        <v>0.84797789101880705</v>
+        <v>0.84312147761514356</v>
       </c>
       <c r="V45" t="s">
         <v>46</v>
       </c>
       <c r="W45">
-        <v>80.122838432858416</v>
+        <v>76.902654867256643</v>
       </c>
       <c r="X45">
-        <v>2.3087883727119132</v>
+        <v>1.617110858915052</v>
       </c>
       <c r="Y45">
-        <v>0.80122838432858412</v>
+        <v>0.76902654867256637</v>
       </c>
       <c r="Z45">
-        <v>0.80251984120859721</v>
+        <v>0.77323375020038632</v>
       </c>
       <c r="AB45" t="s">
         <v>46</v>
@@ -18360,31 +18360,31 @@
         <v>47</v>
       </c>
       <c r="Q46">
-        <v>70.64896755162242</v>
+        <v>70.21816797723163</v>
       </c>
       <c r="R46">
-        <v>1.5148358817420291</v>
+        <v>2.706077290533464</v>
       </c>
       <c r="S46">
-        <v>0.7064896755162241</v>
+        <v>0.70218167977231638</v>
       </c>
       <c r="T46">
-        <v>0.66721820896273809</v>
+        <v>0.62327615089523769</v>
       </c>
       <c r="V46" t="s">
         <v>47</v>
       </c>
       <c r="W46">
-        <v>79.303713699945504</v>
+        <v>74.819937888736064</v>
       </c>
       <c r="X46">
-        <v>1.291023178509056</v>
+        <v>1.844082810501704</v>
       </c>
       <c r="Y46">
-        <v>0.79303713699945499</v>
+        <v>0.74819937888736054</v>
       </c>
       <c r="Z46">
-        <v>0.75013646823480884</v>
+        <v>0.69639123257320201</v>
       </c>
       <c r="AB46" t="s">
         <v>47</v>
@@ -18452,31 +18452,31 @@
         <v>48</v>
       </c>
       <c r="Q47">
-        <v>87.438645663024772</v>
+        <v>84.896755162241888</v>
       </c>
       <c r="R47">
-        <v>0.68975577923712861</v>
+        <v>1.7583904045591721</v>
       </c>
       <c r="S47">
-        <v>0.87438645663024772</v>
+        <v>0.84896755162241888</v>
       </c>
       <c r="T47">
-        <v>0.85746330087710088</v>
+        <v>0.80512613069531103</v>
       </c>
       <c r="V47" t="s">
         <v>48</v>
       </c>
       <c r="W47">
-        <v>84.601769911504419</v>
+        <v>82.330383480825958</v>
       </c>
       <c r="X47">
-        <v>1.015480500356142</v>
+        <v>1.140043185709267</v>
       </c>
       <c r="Y47">
-        <v>0.84601769911504421</v>
+        <v>0.82330383480825964</v>
       </c>
       <c r="Z47">
-        <v>0.82053286836335171</v>
+        <v>0.79088386957547652</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -18544,31 +18544,31 @@
         <v>49</v>
       </c>
       <c r="Q48">
-        <v>94.890959264353498</v>
+        <v>92.359882005899706</v>
       </c>
       <c r="R48">
-        <v>0.24637655547751719</v>
+        <v>1.132228220003026</v>
       </c>
       <c r="S48">
-        <v>0.94890959264353503</v>
+        <v>0.92359882005899707</v>
       </c>
       <c r="T48">
-        <v>0.94557498598577483</v>
+        <v>0.90255193165292824</v>
       </c>
       <c r="V48" t="s">
         <v>49</v>
       </c>
       <c r="W48">
-        <v>95.833008936063464</v>
+        <v>96.371681415929203</v>
       </c>
       <c r="X48">
-        <v>0.28259111220921501</v>
+        <v>0.1102069283041901</v>
       </c>
       <c r="Y48">
-        <v>0.95833008936063457</v>
+        <v>0.963716814159292</v>
       </c>
       <c r="Z48">
-        <v>0.95913912893730724</v>
+        <v>0.96125321986534862</v>
       </c>
       <c r="AB48" t="s">
         <v>49</v>
@@ -18621,14 +18621,14 @@
       </c>
       <c r="Q49">
         <f>AVERAGE(Q4:Q48)</f>
-        <v>79.501022211841502</v>
+        <v>80.039298686743734</v>
       </c>
       <c r="V49" t="s">
         <v>50</v>
       </c>
       <c r="W49">
         <f>AVERAGE(W4:W48)</f>
-        <v>81.728327138546931</v>
+        <v>82.359263007849961</v>
       </c>
       <c r="AB49" t="s">
         <v>50</v>
@@ -18670,8 +18670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D57D433-CB94-4C35-BE52-A3A017F607FF}">
   <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4:AL48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18955,16 +18955,16 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>31.37527141238246</v>
+        <v>37.13198211057189</v>
       </c>
       <c r="L4">
-        <v>7.3016281111781911</v>
+        <v>4.1788958349032326</v>
       </c>
       <c r="M4">
-        <v>0.31375271412382461</v>
+        <v>0.37131982110571887</v>
       </c>
       <c r="N4">
-        <v>0.16247806229523271</v>
+        <v>0.21749753104360919</v>
       </c>
       <c r="P4" t="s">
         <v>5</v>
@@ -18995,6 +18995,36 @@
       </c>
       <c r="Z4">
         <v>0.23258798664115721</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>34.211628128271002</v>
+      </c>
+      <c r="AD4">
+        <v>1.3646428542832529</v>
+      </c>
+      <c r="AE4">
+        <v>0.34211628128270999</v>
+      </c>
+      <c r="AF4">
+        <v>0.19070833786841249</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI4">
+        <v>32.289206654036803</v>
+      </c>
+      <c r="AJ4">
+        <v>30.12364285389582</v>
+      </c>
+      <c r="AK4">
+        <v>0.32289206654036801</v>
+      </c>
+      <c r="AL4">
+        <v>0.18171423201589809</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
@@ -19023,16 +19053,16 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>50.481405548490898</v>
+        <v>42.994576077647729</v>
       </c>
       <c r="L5">
-        <v>2.9389798501407012</v>
+        <v>2.5343032332277891</v>
       </c>
       <c r="M5">
-        <v>0.50481405548490899</v>
+        <v>0.42994576077647728</v>
       </c>
       <c r="N5">
-        <v>0.43681932255500161</v>
+        <v>0.33022908101908338</v>
       </c>
       <c r="P5" t="s">
         <v>6</v>
@@ -19063,6 +19093,36 @@
       </c>
       <c r="Z5">
         <v>0.21896761961365069</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5">
+        <v>33.906694694590783</v>
+      </c>
+      <c r="AD5">
+        <v>11.88217280270668</v>
+      </c>
+      <c r="AE5">
+        <v>0.33906694694590789</v>
+      </c>
+      <c r="AF5">
+        <v>0.239025095120667</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5">
+        <v>43.202968883813867</v>
+      </c>
+      <c r="AJ5">
+        <v>7.1286774492434546</v>
+      </c>
+      <c r="AK5">
+        <v>0.43202968883813869</v>
+      </c>
+      <c r="AL5">
+        <v>0.33075814459257019</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
@@ -19085,16 +19145,16 @@
         <v>7</v>
       </c>
       <c r="K6">
-        <v>63.099161757454652</v>
+        <v>60.459260028200937</v>
       </c>
       <c r="L6">
-        <v>11.737617900125709</v>
+        <v>14.57007169828576</v>
       </c>
       <c r="M6">
-        <v>0.63099161757454647</v>
+        <v>0.60459260028200934</v>
       </c>
       <c r="N6">
-        <v>0.56847924960836749</v>
+        <v>0.5559791061143412</v>
       </c>
       <c r="P6" t="s">
         <v>7</v>
@@ -19125,6 +19185,36 @@
       </c>
       <c r="Z6">
         <v>0.59010314709281053</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6">
+        <v>49.952681251567917</v>
+      </c>
+      <c r="AD6">
+        <v>10.11106936819075</v>
+      </c>
+      <c r="AE6">
+        <v>0.49952681251567921</v>
+      </c>
+      <c r="AF6">
+        <v>0.42754508467837538</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6">
+        <v>65.829202674763621</v>
+      </c>
+      <c r="AJ6">
+        <v>21.04588219169073</v>
+      </c>
+      <c r="AK6">
+        <v>0.65829202674763621</v>
+      </c>
+      <c r="AL6">
+        <v>0.60816258833214609</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.15">
@@ -19147,16 +19237,16 @@
         <v>8</v>
       </c>
       <c r="K7">
-        <v>65.484043979619202</v>
+        <v>49.266429640394811</v>
       </c>
       <c r="L7">
-        <v>2.2667510869418042</v>
+        <v>4.337750093927025</v>
       </c>
       <c r="M7">
-        <v>0.654840439796192</v>
+        <v>0.49266429640394821</v>
       </c>
       <c r="N7">
-        <v>0.63005174548457288</v>
+        <v>0.46064559155405238</v>
       </c>
       <c r="P7" t="s">
         <v>8</v>
@@ -19187,6 +19277,36 @@
       </c>
       <c r="Z7">
         <v>0.42992032827347793</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7">
+        <v>56.377390807878967</v>
+      </c>
+      <c r="AD7">
+        <v>2.5895113218619161</v>
+      </c>
+      <c r="AE7">
+        <v>0.56377390807878958</v>
+      </c>
+      <c r="AF7">
+        <v>0.52111712563737245</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI7">
+        <v>41.005112500973198</v>
+      </c>
+      <c r="AJ7">
+        <v>5.1701304380765576</v>
+      </c>
+      <c r="AK7">
+        <v>0.4100511250097319</v>
+      </c>
+      <c r="AL7">
+        <v>0.37285605604787558</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
@@ -19209,16 +19329,16 @@
         <v>9</v>
       </c>
       <c r="K8">
-        <v>48.905353852541978</v>
+        <v>60.79749824825474</v>
       </c>
       <c r="L8">
-        <v>2.984225255963163</v>
+        <v>1.4059862394817171</v>
       </c>
       <c r="M8">
-        <v>0.48905353852541972</v>
+        <v>0.60797498248254744</v>
       </c>
       <c r="N8">
-        <v>0.39290272287572042</v>
+        <v>0.58645998179106684</v>
       </c>
       <c r="P8" t="s">
         <v>9</v>
@@ -19249,6 +19369,36 @@
       </c>
       <c r="Z8">
         <v>0.42771953852259448</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8">
+        <v>35.926521855725397</v>
+      </c>
+      <c r="AD8">
+        <v>24.738968472888999</v>
+      </c>
+      <c r="AE8">
+        <v>0.35926521855725402</v>
+      </c>
+      <c r="AF8">
+        <v>0.21362173144766669</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI8">
+        <v>53.158937361049837</v>
+      </c>
+      <c r="AJ8">
+        <v>5.5508024951404584</v>
+      </c>
+      <c r="AK8">
+        <v>0.53158937361049841</v>
+      </c>
+      <c r="AL8">
+        <v>0.45310565795337771</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
@@ -19271,16 +19421,16 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>87.610619469026545</v>
+        <v>90.275694426422376</v>
       </c>
       <c r="L9">
-        <v>0.37757894290319499</v>
+        <v>0.26269209052796522</v>
       </c>
       <c r="M9">
-        <v>0.87610619469026541</v>
+        <v>0.9027569442642237</v>
       </c>
       <c r="N9">
-        <v>0.86630420332985314</v>
+        <v>0.90224103812794532</v>
       </c>
       <c r="P9" t="s">
         <v>10</v>
@@ -19311,6 +19461,36 @@
       </c>
       <c r="Z9">
         <v>0.89371730426778961</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC9">
+        <v>88.292718795145291</v>
+      </c>
+      <c r="AD9">
+        <v>0.42303080184894187</v>
+      </c>
+      <c r="AE9">
+        <v>0.88292718795145286</v>
+      </c>
+      <c r="AF9">
+        <v>0.88223926250508744</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9">
+        <v>90.442477876106196</v>
+      </c>
+      <c r="AJ9">
+        <v>0.43214875504568229</v>
+      </c>
+      <c r="AK9">
+        <v>0.90442477876106186</v>
+      </c>
+      <c r="AL9">
+        <v>0.88747583541504027</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
@@ -19333,16 +19513,16 @@
         <v>11</v>
       </c>
       <c r="K10">
-        <v>78.189430704417845</v>
+        <v>79.187709236239073</v>
       </c>
       <c r="L10">
-        <v>1.6031948764869941</v>
+        <v>2.5196760234995659</v>
       </c>
       <c r="M10">
-        <v>0.78189430704417862</v>
+        <v>0.79187709236239068</v>
       </c>
       <c r="N10">
-        <v>0.74498231725619513</v>
+        <v>0.7577910299213968</v>
       </c>
       <c r="P10" t="s">
         <v>11</v>
@@ -19373,6 +19553,36 @@
       </c>
       <c r="Z10">
         <v>0.7541360575731153</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC10">
+        <v>79.73451327433628</v>
+      </c>
+      <c r="AD10">
+        <v>2.4405123282055761</v>
+      </c>
+      <c r="AE10">
+        <v>0.79734513274336283</v>
+      </c>
+      <c r="AF10">
+        <v>0.76533796872060822</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI10">
+        <v>80.806494865872551</v>
+      </c>
+      <c r="AJ10">
+        <v>1.332892999848809</v>
+      </c>
+      <c r="AK10">
+        <v>0.80806494865872547</v>
+      </c>
+      <c r="AL10">
+        <v>0.79371491395472837</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
@@ -19395,16 +19605,16 @@
         <v>12</v>
       </c>
       <c r="K11">
-        <v>82.845699357260884</v>
+        <v>86.467529995934228</v>
       </c>
       <c r="L11">
-        <v>0.68728643121185429</v>
+        <v>0.83484781801271379</v>
       </c>
       <c r="M11">
-        <v>0.82845699357260882</v>
+        <v>0.86467529995934223</v>
       </c>
       <c r="N11">
-        <v>0.82237310662104979</v>
+        <v>0.84570011215887442</v>
       </c>
       <c r="P11" t="s">
         <v>12</v>
@@ -19435,6 +19645,36 @@
       </c>
       <c r="Z11">
         <v>0.7957179881842249</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11">
+        <v>86.843225287415976</v>
+      </c>
+      <c r="AD11">
+        <v>0.46385615486152171</v>
+      </c>
+      <c r="AE11">
+        <v>0.86843225287415982</v>
+      </c>
+      <c r="AF11">
+        <v>0.84230095266201555</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI11">
+        <v>88.386491232623115</v>
+      </c>
+      <c r="AJ11">
+        <v>1.0078191169648649</v>
+      </c>
+      <c r="AK11">
+        <v>0.88386491232623121</v>
+      </c>
+      <c r="AL11">
+        <v>0.86351618440976774</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
@@ -19457,16 +19697,16 @@
         <v>13</v>
       </c>
       <c r="K12">
-        <v>84.631268436578168</v>
+        <v>84.572271386430685</v>
       </c>
       <c r="L12">
-        <v>1.979864259028308</v>
+        <v>1.9621518432679641</v>
       </c>
       <c r="M12">
-        <v>0.84631268436578166</v>
+        <v>0.84572271386430686</v>
       </c>
       <c r="N12">
-        <v>0.82787308008350435</v>
+        <v>0.82421675167494501</v>
       </c>
       <c r="P12" t="s">
         <v>13</v>
@@ -19497,6 +19737,36 @@
       </c>
       <c r="Z12">
         <v>0.81167485506960568</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12">
+        <v>87.197640117994098</v>
+      </c>
+      <c r="AD12">
+        <v>1.3893690756497279</v>
+      </c>
+      <c r="AE12">
+        <v>0.87197640117994113</v>
+      </c>
+      <c r="AF12">
+        <v>0.85887944033012542</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI12">
+        <v>85.545722713864308</v>
+      </c>
+      <c r="AJ12">
+        <v>1.1149432575347189</v>
+      </c>
+      <c r="AK12">
+        <v>0.85545722713864303</v>
+      </c>
+      <c r="AL12">
+        <v>0.8406805385779228</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
@@ -19519,16 +19789,16 @@
         <v>14</v>
       </c>
       <c r="K13">
-        <v>89.528023598820056</v>
+        <v>90.11851313592679</v>
       </c>
       <c r="L13">
-        <v>0.78468376537446138</v>
+        <v>0.7700817039214447</v>
       </c>
       <c r="M13">
-        <v>0.8952802359882005</v>
+        <v>0.90118513135926792</v>
       </c>
       <c r="N13">
-        <v>0.88959811930320476</v>
+        <v>0.89536344920510957</v>
       </c>
       <c r="P13" t="s">
         <v>14</v>
@@ -19559,6 +19829,36 @@
       </c>
       <c r="Z13">
         <v>0.82713779773082263</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13">
+        <v>86.079896884921155</v>
+      </c>
+      <c r="AD13">
+        <v>0.89398314941306212</v>
+      </c>
+      <c r="AE13">
+        <v>0.86079896884921148</v>
+      </c>
+      <c r="AF13">
+        <v>0.85477526154359362</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI13">
+        <v>82.047163037742536</v>
+      </c>
+      <c r="AJ13">
+        <v>1.030270952874816</v>
+      </c>
+      <c r="AK13">
+        <v>0.82047163037742554</v>
+      </c>
+      <c r="AL13">
+        <v>0.80788326399936172</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.15">
@@ -19581,16 +19881,16 @@
         <v>15</v>
       </c>
       <c r="K14">
-        <v>88.827325495895295</v>
+        <v>86.879557781641708</v>
       </c>
       <c r="L14">
-        <v>1.389139412448485</v>
+        <v>1.4388314708037491</v>
       </c>
       <c r="M14">
-        <v>0.88827325495895304</v>
+        <v>0.86879557781641714</v>
       </c>
       <c r="N14">
-        <v>0.88271551822014516</v>
+        <v>0.85495707339552163</v>
       </c>
       <c r="P14" t="s">
         <v>15</v>
@@ -19621,6 +19921,36 @@
       </c>
       <c r="Z14">
         <v>0.88557548040724399</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC14">
+        <v>88.584070796460168</v>
+      </c>
+      <c r="AD14">
+        <v>0.87515265869950998</v>
+      </c>
+      <c r="AE14">
+        <v>0.88584070796460179</v>
+      </c>
+      <c r="AF14">
+        <v>0.87056583668744492</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI14">
+        <v>83.806693829531397</v>
+      </c>
+      <c r="AJ14">
+        <v>1.160694919451063</v>
+      </c>
+      <c r="AK14">
+        <v>0.83806693829531409</v>
+      </c>
+      <c r="AL14">
+        <v>0.83405557905334615</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.15">
@@ -19643,16 +19973,16 @@
         <v>16</v>
       </c>
       <c r="K15">
-        <v>89.528023598820056</v>
+        <v>92.330383480825958</v>
       </c>
       <c r="L15">
-        <v>0.74646903138102705</v>
+        <v>0.99735865294811643</v>
       </c>
       <c r="M15">
-        <v>0.8952802359882005</v>
+        <v>0.92330383480825962</v>
       </c>
       <c r="N15">
-        <v>0.88200801531852324</v>
+        <v>0.91067809132552413</v>
       </c>
       <c r="P15" t="s">
         <v>16</v>
@@ -19683,6 +20013,36 @@
       </c>
       <c r="Z15">
         <v>0.81653679683430358</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC15">
+        <v>88.704487063036879</v>
+      </c>
+      <c r="AD15">
+        <v>1.1030363434137851</v>
+      </c>
+      <c r="AE15">
+        <v>0.88704487063036874</v>
+      </c>
+      <c r="AF15">
+        <v>0.87743253825988288</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI15">
+        <v>91.918961236688901</v>
+      </c>
+      <c r="AJ15">
+        <v>0.55686072154575916</v>
+      </c>
+      <c r="AK15">
+        <v>0.91918961236688901</v>
+      </c>
+      <c r="AL15">
+        <v>0.91179596930687801</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.15">
@@ -19705,16 +20065,16 @@
         <v>17</v>
       </c>
       <c r="K16">
-        <v>87.728613569321539</v>
+        <v>85.368731563421832</v>
       </c>
       <c r="L16">
-        <v>1.1225530300369191</v>
+        <v>0.78024471016080721</v>
       </c>
       <c r="M16">
-        <v>0.87728613569321534</v>
+        <v>0.8536873156342184</v>
       </c>
       <c r="N16">
-        <v>0.85499519109121991</v>
+        <v>0.82931493797427402</v>
       </c>
       <c r="P16" t="s">
         <v>17</v>
@@ -19746,8 +20106,38 @@
       <c r="Z16">
         <v>0.83446629632377589</v>
       </c>
-    </row>
-    <row r="17" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC16">
+        <v>86.135693215339231</v>
+      </c>
+      <c r="AD16">
+        <v>1.2130132127109059</v>
+      </c>
+      <c r="AE16">
+        <v>0.86135693215339226</v>
+      </c>
+      <c r="AF16">
+        <v>0.85594600727826187</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI16">
+        <v>90.74334553067068</v>
+      </c>
+      <c r="AJ16">
+        <v>0.65747810724790157</v>
+      </c>
+      <c r="AK16">
+        <v>0.90743345530670683</v>
+      </c>
+      <c r="AL16">
+        <v>0.89795003798843831</v>
+      </c>
+    </row>
+    <row r="17" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
         <v>18</v>
       </c>
@@ -19767,16 +20157,16 @@
         <v>18</v>
       </c>
       <c r="K17">
-        <v>84.395280235988196</v>
+        <v>73.48082595870207</v>
       </c>
       <c r="L17">
-        <v>0.63230742782918692</v>
+        <v>1.792056931351395</v>
       </c>
       <c r="M17">
-        <v>0.84395280235988202</v>
+        <v>0.73480825958702067</v>
       </c>
       <c r="N17">
-        <v>0.84623843504792295</v>
+        <v>0.71769683241833993</v>
       </c>
       <c r="P17" t="s">
         <v>18</v>
@@ -19808,8 +20198,38 @@
       <c r="Z17">
         <v>0.7603836288034419</v>
       </c>
-    </row>
-    <row r="18" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC17">
+        <v>79.74610507011306</v>
+      </c>
+      <c r="AD17">
+        <v>1.09920111104935</v>
+      </c>
+      <c r="AE17">
+        <v>0.7974610507011306</v>
+      </c>
+      <c r="AF17">
+        <v>0.79000164759659131</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI17">
+        <v>76.51917404129793</v>
+      </c>
+      <c r="AJ17">
+        <v>1.213985815784016</v>
+      </c>
+      <c r="AK17">
+        <v>0.76519174041297933</v>
+      </c>
+      <c r="AL17">
+        <v>0.76607019441673008</v>
+      </c>
+    </row>
+    <row r="18" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -19829,16 +20249,16 @@
         <v>19</v>
       </c>
       <c r="K18">
-        <v>82.518447391413417</v>
+        <v>76.51917404129793</v>
       </c>
       <c r="L18">
-        <v>0.41266452624718503</v>
+        <v>0.88439721352393919</v>
       </c>
       <c r="M18">
-        <v>0.82518447391413419</v>
+        <v>0.76519174041297933</v>
       </c>
       <c r="N18">
-        <v>0.82182030540958451</v>
+        <v>0.76796734807409184</v>
       </c>
       <c r="P18" t="s">
         <v>19</v>
@@ -19870,8 +20290,38 @@
       <c r="Z18">
         <v>0.79558488565106933</v>
       </c>
-    </row>
-    <row r="19" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC18">
+        <v>71.250097319180966</v>
+      </c>
+      <c r="AD18">
+        <v>1.922673599705828</v>
+      </c>
+      <c r="AE18">
+        <v>0.71250097319180961</v>
+      </c>
+      <c r="AF18">
+        <v>0.63939804599231653</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI18">
+        <v>83.893805309734518</v>
+      </c>
+      <c r="AJ18">
+        <v>0.5368522274789298</v>
+      </c>
+      <c r="AK18">
+        <v>0.83893805309734515</v>
+      </c>
+      <c r="AL18">
+        <v>0.81484189960781939</v>
+      </c>
+    </row>
+    <row r="19" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -19891,16 +20341,16 @@
         <v>20</v>
       </c>
       <c r="K19">
-        <v>57.352485748146613</v>
+        <v>70.008996617617797</v>
       </c>
       <c r="L19">
-        <v>5.3747795360157422</v>
+        <v>4.015869518239958</v>
       </c>
       <c r="M19">
-        <v>0.57352485748146609</v>
+        <v>0.70008996617617802</v>
       </c>
       <c r="N19">
-        <v>0.55170266824767622</v>
+        <v>0.67050912434919741</v>
       </c>
       <c r="P19" t="s">
         <v>20</v>
@@ -19932,8 +20382,38 @@
       <c r="Z19">
         <v>0.64785623792746794</v>
       </c>
-    </row>
-    <row r="20" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC19">
+        <v>61.474926253687308</v>
+      </c>
+      <c r="AD19">
+        <v>4.2459564409883264</v>
+      </c>
+      <c r="AE19">
+        <v>0.61474926253687312</v>
+      </c>
+      <c r="AF19">
+        <v>0.58461642666269686</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI19">
+        <v>67.321776139932012</v>
+      </c>
+      <c r="AJ19">
+        <v>3.7786123140452461</v>
+      </c>
+      <c r="AK19">
+        <v>0.67321776139931999</v>
+      </c>
+      <c r="AL19">
+        <v>0.64623392389994905</v>
+      </c>
+    </row>
+    <row r="20" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>21</v>
       </c>
@@ -19953,16 +20433,16 @@
         <v>21</v>
       </c>
       <c r="K20">
-        <v>96.076696165191748</v>
+        <v>89.410029498525063</v>
       </c>
       <c r="L20">
-        <v>0.159591168690046</v>
+        <v>1.3826630533540081</v>
       </c>
       <c r="M20">
-        <v>0.96076696165191744</v>
+        <v>0.89410029498525068</v>
       </c>
       <c r="N20">
-        <v>0.95860925806030506</v>
+        <v>0.88162165475014365</v>
       </c>
       <c r="P20" t="s">
         <v>21</v>
@@ -19994,8 +20474,38 @@
       <c r="Z20">
         <v>0.8841837307664473</v>
       </c>
-    </row>
-    <row r="21" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC20">
+        <v>97.168660628552146</v>
+      </c>
+      <c r="AD20">
+        <v>7.7960814191782343E-2</v>
+      </c>
+      <c r="AE20">
+        <v>0.97168660628552161</v>
+      </c>
+      <c r="AF20">
+        <v>0.97067066816560177</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI20">
+        <v>95.309734513274336</v>
+      </c>
+      <c r="AJ20">
+        <v>0.18320530586474651</v>
+      </c>
+      <c r="AK20">
+        <v>0.95309734513274336</v>
+      </c>
+      <c r="AL20">
+        <v>0.94955457623135564</v>
+      </c>
+    </row>
+    <row r="21" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -20015,16 +20525,16 @@
         <v>22</v>
       </c>
       <c r="K21">
-        <v>98.408982776667614</v>
+        <v>98.328445747800586</v>
       </c>
       <c r="L21">
-        <v>7.2198509953463455E-2</v>
+        <v>0.61538301997212175</v>
       </c>
       <c r="M21">
-        <v>0.9840898277666762</v>
+        <v>0.98328445747800575</v>
       </c>
       <c r="N21">
-        <v>0.98397001365446157</v>
+        <v>0.98249913234986663</v>
       </c>
       <c r="P21" t="s">
         <v>22</v>
@@ -20056,8 +20566,38 @@
       <c r="Z21">
         <v>0.88237637763706045</v>
       </c>
-    </row>
-    <row r="22" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC21">
+        <v>93.126843657817105</v>
+      </c>
+      <c r="AD21">
+        <v>1.0125465807373619</v>
+      </c>
+      <c r="AE21">
+        <v>0.93126843657817115</v>
+      </c>
+      <c r="AF21">
+        <v>0.90664411092949526</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI21">
+        <v>100</v>
+      </c>
+      <c r="AJ21">
+        <v>2.0310044438772929E-3</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>23</v>
       </c>
@@ -20077,16 +20617,16 @@
         <v>23</v>
       </c>
       <c r="K22">
-        <v>45.443299682523197</v>
+        <v>54.299604667860443</v>
       </c>
       <c r="L22">
-        <v>17.741376548427429</v>
+        <v>4.4280720223436516</v>
       </c>
       <c r="M22">
-        <v>0.45443299682523203</v>
+        <v>0.54299604667860446</v>
       </c>
       <c r="N22">
-        <v>0.42725940643254329</v>
+        <v>0.49886800241881307</v>
       </c>
       <c r="P22" t="s">
         <v>23</v>
@@ -20118,8 +20658,38 @@
       <c r="Z22">
         <v>0.67593391190349028</v>
       </c>
-    </row>
-    <row r="23" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC22">
+        <v>55.750222752791977</v>
+      </c>
+      <c r="AD22">
+        <v>5.1382025946485914</v>
+      </c>
+      <c r="AE22">
+        <v>0.55750222752791978</v>
+      </c>
+      <c r="AF22">
+        <v>0.47089975114189142</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI22">
+        <v>63.236619693941989</v>
+      </c>
+      <c r="AJ22">
+        <v>7.0395124362169597</v>
+      </c>
+      <c r="AK22">
+        <v>0.63236619693941987</v>
+      </c>
+      <c r="AL22">
+        <v>0.59128566965313289</v>
+      </c>
+    </row>
+    <row r="23" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>24</v>
       </c>
@@ -20139,16 +20709,16 @@
         <v>24</v>
       </c>
       <c r="K23">
-        <v>93.510324483775804</v>
+        <v>88.200589970501468</v>
       </c>
       <c r="L23">
-        <v>1.715418930520207</v>
+        <v>1.0273748591141461</v>
       </c>
       <c r="M23">
-        <v>0.93510324483775809</v>
+        <v>0.88200589970501464</v>
       </c>
       <c r="N23">
-        <v>0.92423664680118178</v>
+        <v>0.8739519736327479</v>
       </c>
       <c r="P23" t="s">
         <v>24</v>
@@ -20180,8 +20750,38 @@
       <c r="Z23">
         <v>0.99674894177615347</v>
       </c>
-    </row>
-    <row r="24" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC23">
+        <v>99.646017699115049</v>
+      </c>
+      <c r="AD23">
+        <v>9.096920256098014E-3</v>
+      </c>
+      <c r="AE23">
+        <v>0.9964601769911503</v>
+      </c>
+      <c r="AF23">
+        <v>0.99646255939772765</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI23">
+        <v>92.448377581120937</v>
+      </c>
+      <c r="AJ23">
+        <v>0.53202287654132874</v>
+      </c>
+      <c r="AK23">
+        <v>0.92448377581120944</v>
+      </c>
+      <c r="AL23">
+        <v>0.92600520596348623</v>
+      </c>
+    </row>
+    <row r="24" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>25</v>
       </c>
@@ -20201,16 +20801,16 @@
         <v>25</v>
       </c>
       <c r="K24">
-        <v>53.112916201697253</v>
+        <v>63.046133617072812</v>
       </c>
       <c r="L24">
-        <v>4.1996810647617693</v>
+        <v>1.7156900721400989</v>
       </c>
       <c r="M24">
-        <v>0.53112916201697247</v>
+        <v>0.63046133617072819</v>
       </c>
       <c r="N24">
-        <v>0.47211232830269872</v>
+        <v>0.60167153535387929</v>
       </c>
       <c r="P24" t="s">
         <v>25</v>
@@ -20242,8 +20842,38 @@
       <c r="Z24">
         <v>0.72678169510497026</v>
       </c>
-    </row>
-    <row r="25" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC24">
+        <v>48.962188254223648</v>
+      </c>
+      <c r="AD24">
+        <v>9.2663697605624229</v>
+      </c>
+      <c r="AE24">
+        <v>0.48962188254223649</v>
+      </c>
+      <c r="AF24">
+        <v>0.4136909651242921</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI24">
+        <v>53.144317857420923</v>
+      </c>
+      <c r="AJ24">
+        <v>5.321806222304061</v>
+      </c>
+      <c r="AK24">
+        <v>0.53144317857420909</v>
+      </c>
+      <c r="AL24">
+        <v>0.45521763429127599</v>
+      </c>
+    </row>
+    <row r="25" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>26</v>
       </c>
@@ -20263,16 +20893,16 @@
         <v>26</v>
       </c>
       <c r="K25">
-        <v>84.159292035398238</v>
+        <v>84.86725663716814</v>
       </c>
       <c r="L25">
-        <v>1.539162877764338</v>
+        <v>1.5399215249260989</v>
       </c>
       <c r="M25">
-        <v>0.84159292035398237</v>
+        <v>0.84867256637168142</v>
       </c>
       <c r="N25">
-        <v>0.80913717958904507</v>
+        <v>0.81912802029454179</v>
       </c>
       <c r="P25" t="s">
         <v>26</v>
@@ -20304,8 +20934,38 @@
       <c r="Z25">
         <v>0.81869960480859727</v>
       </c>
-    </row>
-    <row r="26" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC25">
+        <v>82.541025441396556</v>
+      </c>
+      <c r="AD25">
+        <v>1.695148533016015</v>
+      </c>
+      <c r="AE25">
+        <v>0.82541025441396554</v>
+      </c>
+      <c r="AF25">
+        <v>0.80366387623391788</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI25">
+        <v>84.188790560471972</v>
+      </c>
+      <c r="AJ25">
+        <v>1.064430498451687</v>
+      </c>
+      <c r="AK25">
+        <v>0.84188790560471971</v>
+      </c>
+      <c r="AL25">
+        <v>0.81461375495067401</v>
+      </c>
+    </row>
+    <row r="26" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -20325,16 +20985,16 @@
         <v>27</v>
       </c>
       <c r="K26">
-        <v>88.374207389337272</v>
+        <v>88.513395444597265</v>
       </c>
       <c r="L26">
-        <v>0.38145096594054528</v>
+        <v>0.5333453485063463</v>
       </c>
       <c r="M26">
-        <v>0.88374207389337278</v>
+        <v>0.88513395444597265</v>
       </c>
       <c r="N26">
-        <v>0.87528571156888124</v>
+        <v>0.87558761219867676</v>
       </c>
       <c r="P26" t="s">
         <v>27</v>
@@ -20366,8 +21026,38 @@
       <c r="Z26">
         <v>0.81926975247264644</v>
       </c>
-    </row>
-    <row r="27" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC26">
+        <v>86.662946911305454</v>
+      </c>
+      <c r="AD26">
+        <v>1.2002237767335671</v>
+      </c>
+      <c r="AE26">
+        <v>0.8666294691130545</v>
+      </c>
+      <c r="AF26">
+        <v>0.85327269771700753</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI26">
+        <v>85.244336023668026</v>
+      </c>
+      <c r="AJ26">
+        <v>1.823022601947178</v>
+      </c>
+      <c r="AK26">
+        <v>0.85244336023668021</v>
+      </c>
+      <c r="AL26">
+        <v>0.83283857503009651</v>
+      </c>
+    </row>
+    <row r="27" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
         <v>28</v>
       </c>
@@ -20387,16 +21077,16 @@
         <v>28</v>
       </c>
       <c r="K27">
-        <v>90.826650749573957</v>
+        <v>92.094395280236</v>
       </c>
       <c r="L27">
-        <v>1.1684012270039299</v>
+        <v>0.84668803127845804</v>
       </c>
       <c r="M27">
-        <v>0.90826650749573956</v>
+        <v>0.92094395280235974</v>
       </c>
       <c r="N27">
-        <v>0.88641277665405604</v>
+        <v>0.89896444189766156</v>
       </c>
       <c r="P27" t="s">
         <v>28</v>
@@ -20428,8 +21118,38 @@
       <c r="Z27">
         <v>0.95662585952267543</v>
       </c>
-    </row>
-    <row r="28" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC27">
+        <v>81.091445427728615</v>
+      </c>
+      <c r="AD27">
+        <v>2.0708859002266018</v>
+      </c>
+      <c r="AE27">
+        <v>0.81091445427728615</v>
+      </c>
+      <c r="AF27">
+        <v>0.76454097714331537</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI27">
+        <v>93.628318584070797</v>
+      </c>
+      <c r="AJ27">
+        <v>0.23306516854462039</v>
+      </c>
+      <c r="AK27">
+        <v>0.93628318584070802</v>
+      </c>
+      <c r="AL27">
+        <v>0.92219404297518004</v>
+      </c>
+    </row>
+    <row r="28" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
         <v>29</v>
       </c>
@@ -20449,16 +21169,16 @@
         <v>29</v>
       </c>
       <c r="K28">
-        <v>89.852507374631273</v>
+        <v>86.703258678708295</v>
       </c>
       <c r="L28">
-        <v>0.57782570689206381</v>
+        <v>0.85476478500953201</v>
       </c>
       <c r="M28">
-        <v>0.89852507374631263</v>
+        <v>0.86703258678708295</v>
       </c>
       <c r="N28">
-        <v>0.8916790781883599</v>
+        <v>0.84231084075995777</v>
       </c>
       <c r="P28" t="s">
         <v>29</v>
@@ -20490,8 +21210,38 @@
       <c r="Z28">
         <v>0.87340754688078681</v>
       </c>
-    </row>
-    <row r="29" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC28">
+        <v>90.714020017474198</v>
+      </c>
+      <c r="AD28">
+        <v>0.26474196545000062</v>
+      </c>
+      <c r="AE28">
+        <v>0.90714020017474206</v>
+      </c>
+      <c r="AF28">
+        <v>0.90421161627054014</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI28">
+        <v>91.65191740412979</v>
+      </c>
+      <c r="AJ28">
+        <v>0.45127232223086611</v>
+      </c>
+      <c r="AK28">
+        <v>0.9165191740412979</v>
+      </c>
+      <c r="AL28">
+        <v>0.91186737623783976</v>
+      </c>
+    </row>
+    <row r="29" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
         <v>30</v>
       </c>
@@ -20511,16 +21261,16 @@
         <v>30</v>
       </c>
       <c r="K29">
-        <v>89.35103244837758</v>
+        <v>93.126843657817105</v>
       </c>
       <c r="L29">
-        <v>0.77496228626103514</v>
+        <v>1.6471134432492041</v>
       </c>
       <c r="M29">
-        <v>0.89351032448377588</v>
+        <v>0.93126843657817115</v>
       </c>
       <c r="N29">
-        <v>0.86517723984253669</v>
+        <v>0.90829273614555406</v>
       </c>
       <c r="P29" t="s">
         <v>30</v>
@@ -20552,8 +21302,38 @@
       <c r="Z29">
         <v>0.94170934200251732</v>
       </c>
-    </row>
-    <row r="30" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC29">
+        <v>94.336283185840699</v>
+      </c>
+      <c r="AD29">
+        <v>0.44711708124302979</v>
+      </c>
+      <c r="AE29">
+        <v>0.94336283185840697</v>
+      </c>
+      <c r="AF29">
+        <v>0.93240341417879724</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI29">
+        <v>92.861356932153384</v>
+      </c>
+      <c r="AJ29">
+        <v>0.39385178917863589</v>
+      </c>
+      <c r="AK29">
+        <v>0.92861356932153394</v>
+      </c>
+      <c r="AL29">
+        <v>0.90956595328319323</v>
+      </c>
+    </row>
+    <row r="30" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
         <v>31</v>
       </c>
@@ -20573,16 +21353,16 @@
         <v>31</v>
       </c>
       <c r="K30">
-        <v>95.368731563421832</v>
+        <v>97.433628318584084</v>
       </c>
       <c r="L30">
-        <v>0.14888129533435401</v>
+        <v>4.1219355281947402E-2</v>
       </c>
       <c r="M30">
-        <v>0.95368731563421838</v>
+        <v>0.97433628318584076</v>
       </c>
       <c r="N30">
-        <v>0.95098518275332222</v>
+        <v>0.97364808608382059</v>
       </c>
       <c r="P30" t="s">
         <v>31</v>
@@ -20614,8 +21394,38 @@
       <c r="Z30">
         <v>0.95050483939898656</v>
       </c>
-    </row>
-    <row r="31" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC30">
+        <v>90.560471976401189</v>
+      </c>
+      <c r="AD30">
+        <v>0.76539053875847374</v>
+      </c>
+      <c r="AE30">
+        <v>0.90560471976401191</v>
+      </c>
+      <c r="AF30">
+        <v>0.89788722349334282</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI30">
+        <v>98.027751105113367</v>
+      </c>
+      <c r="AJ30">
+        <v>4.2802103545037988E-2</v>
+      </c>
+      <c r="AK30">
+        <v>0.9802775110511337</v>
+      </c>
+      <c r="AL30">
+        <v>0.97987201968314197</v>
+      </c>
+    </row>
+    <row r="31" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
         <v>32</v>
       </c>
@@ -20635,16 +21445,16 @@
         <v>32</v>
       </c>
       <c r="K31">
-        <v>73.164646752999587</v>
+        <v>71.820257960709</v>
       </c>
       <c r="L31">
-        <v>1.959584186684757</v>
+        <v>1.6056098685653639</v>
       </c>
       <c r="M31">
-        <v>0.73164646752999596</v>
+        <v>0.71820257960709</v>
       </c>
       <c r="N31">
-        <v>0.7048368040667361</v>
+        <v>0.67091499669888965</v>
       </c>
       <c r="P31" t="s">
         <v>32</v>
@@ -20676,8 +21486,38 @@
       <c r="Z31">
         <v>0.76580000110570534</v>
       </c>
-    </row>
-    <row r="32" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC31">
+        <v>85.003676502391883</v>
+      </c>
+      <c r="AD31">
+        <v>1.032146738249264</v>
+      </c>
+      <c r="AE31">
+        <v>0.85003676502391889</v>
+      </c>
+      <c r="AF31">
+        <v>0.80906764559842581</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI31">
+        <v>74.050813588352838</v>
+      </c>
+      <c r="AJ31">
+        <v>2.5027306123543629</v>
+      </c>
+      <c r="AK31">
+        <v>0.74050813588352837</v>
+      </c>
+      <c r="AL31">
+        <v>0.72773597569477488</v>
+      </c>
+    </row>
+    <row r="32" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D32" t="s">
         <v>33</v>
       </c>
@@ -20697,16 +21537,16 @@
         <v>33</v>
       </c>
       <c r="K32">
-        <v>78.46495211896297</v>
+        <v>83.311274318982001</v>
       </c>
       <c r="L32">
-        <v>1.332567009852786</v>
+        <v>0.32232120875226161</v>
       </c>
       <c r="M32">
-        <v>0.78464952118962972</v>
+        <v>0.83311274318981998</v>
       </c>
       <c r="N32">
-        <v>0.76602565296916347</v>
+        <v>0.80403755474723915</v>
       </c>
       <c r="P32" t="s">
         <v>33</v>
@@ -20738,8 +21578,38 @@
       <c r="Z32">
         <v>0.78817486072758691</v>
       </c>
-    </row>
-    <row r="33" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC32">
+        <v>70.217648941599833</v>
+      </c>
+      <c r="AD32">
+        <v>5.1243242364189836</v>
+      </c>
+      <c r="AE32">
+        <v>0.70217648941599842</v>
+      </c>
+      <c r="AF32">
+        <v>0.62331771989470608</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI32">
+        <v>82.391802697255173</v>
+      </c>
+      <c r="AJ32">
+        <v>1.4079549395108</v>
+      </c>
+      <c r="AK32">
+        <v>0.82391802697255156</v>
+      </c>
+      <c r="AL32">
+        <v>0.80782909526540914</v>
+      </c>
+    </row>
+    <row r="33" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
         <v>34</v>
       </c>
@@ -20759,16 +21629,16 @@
         <v>34</v>
       </c>
       <c r="K33">
-        <v>81.473109628976033</v>
+        <v>83.21533923303835</v>
       </c>
       <c r="L33">
-        <v>1.4464083227049991</v>
+        <v>1.8878149960909829</v>
       </c>
       <c r="M33">
-        <v>0.81473109628976026</v>
+        <v>0.83215339233038355</v>
       </c>
       <c r="N33">
-        <v>0.80238983842145595</v>
+        <v>0.83422409179117007</v>
       </c>
       <c r="P33" t="s">
         <v>34</v>
@@ -20800,8 +21670,38 @@
       <c r="Z33">
         <v>0.80207710271292743</v>
       </c>
-    </row>
-    <row r="34" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC33">
+        <v>89.587020648967552</v>
+      </c>
+      <c r="AD33">
+        <v>0.87653039203125582</v>
+      </c>
+      <c r="AE33">
+        <v>0.89587020648967552</v>
+      </c>
+      <c r="AF33">
+        <v>0.87958453809948156</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI33">
+        <v>85.290443688959243</v>
+      </c>
+      <c r="AJ33">
+        <v>0.92484810724548172</v>
+      </c>
+      <c r="AK33">
+        <v>0.85290443688959239</v>
+      </c>
+      <c r="AL33">
+        <v>0.85244953533405732</v>
+      </c>
+    </row>
+    <row r="34" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>35</v>
       </c>
@@ -20821,16 +21721,16 @@
         <v>35</v>
       </c>
       <c r="K34">
-        <v>86.51917404129793</v>
+        <v>90.825958702064895</v>
       </c>
       <c r="L34">
-        <v>1.033867248589442</v>
+        <v>0.59130389050863452</v>
       </c>
       <c r="M34">
-        <v>0.86519174041297942</v>
+        <v>0.90825958702064891</v>
       </c>
       <c r="N34">
-        <v>0.84780901775877116</v>
+        <v>0.90660970970186094</v>
       </c>
       <c r="P34" t="s">
         <v>35</v>
@@ -20862,8 +21762,38 @@
       <c r="Z34">
         <v>0.91495293170883618</v>
       </c>
-    </row>
-    <row r="35" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC34">
+        <v>89.174041297935105</v>
+      </c>
+      <c r="AD34">
+        <v>0.7733696160859671</v>
+      </c>
+      <c r="AE34">
+        <v>0.89174041297935103</v>
+      </c>
+      <c r="AF34">
+        <v>0.88225129941992075</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI34">
+        <v>92.595870206489678</v>
+      </c>
+      <c r="AJ34">
+        <v>0.43638428106122162</v>
+      </c>
+      <c r="AK34">
+        <v>0.92595870206489683</v>
+      </c>
+      <c r="AL34">
+        <v>0.92210772394589158</v>
+      </c>
+    </row>
+    <row r="35" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
         <v>36</v>
       </c>
@@ -20883,16 +21813,16 @@
         <v>36</v>
       </c>
       <c r="K35">
-        <v>99.557522123893804</v>
+        <v>97.581120943952811</v>
       </c>
       <c r="L35">
-        <v>7.552796587161896E-3</v>
+        <v>0.1562402559336907</v>
       </c>
       <c r="M35">
-        <v>0.99557522123893816</v>
+        <v>0.97581120943952793</v>
       </c>
       <c r="N35">
-        <v>0.99554103964196228</v>
+        <v>0.97578919569764699</v>
       </c>
       <c r="P35" t="s">
         <v>36</v>
@@ -20924,8 +21854,38 @@
       <c r="Z35">
         <v>0.941488762354728</v>
       </c>
-    </row>
-    <row r="36" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC35">
+        <v>97.143141376655507</v>
+      </c>
+      <c r="AD35">
+        <v>6.0765305742096119E-2</v>
+      </c>
+      <c r="AE35">
+        <v>0.97143141376655495</v>
+      </c>
+      <c r="AF35">
+        <v>0.97116038150498185</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI35">
+        <v>89.784946236559136</v>
+      </c>
+      <c r="AJ35">
+        <v>0.44682247210203901</v>
+      </c>
+      <c r="AK35">
+        <v>0.89784946236559138</v>
+      </c>
+      <c r="AL35">
+        <v>0.89462648572532666</v>
+      </c>
+    </row>
+    <row r="36" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -20945,16 +21905,16 @@
         <v>37</v>
       </c>
       <c r="K36">
-        <v>97.256637168141594</v>
+        <v>97.020648967551622</v>
       </c>
       <c r="L36">
-        <v>0.6848580728146676</v>
+        <v>0.3174948723293104</v>
       </c>
       <c r="M36">
-        <v>0.97256637168141591</v>
+        <v>0.97020648967551626</v>
       </c>
       <c r="N36">
-        <v>0.97174836841479295</v>
+        <v>0.96960026885504291</v>
       </c>
       <c r="P36" t="s">
         <v>37</v>
@@ -20986,8 +21946,38 @@
       <c r="Z36">
         <v>0.95616739254491423</v>
       </c>
-    </row>
-    <row r="37" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC36">
+        <v>95.722713864306783</v>
+      </c>
+      <c r="AD36">
+        <v>0.46902035812041998</v>
+      </c>
+      <c r="AE36">
+        <v>0.95722713864306785</v>
+      </c>
+      <c r="AF36">
+        <v>0.95725158115107567</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI36">
+        <v>93.244837758112084</v>
+      </c>
+      <c r="AJ36">
+        <v>0.80566794610919157</v>
+      </c>
+      <c r="AK36">
+        <v>0.93244837758112098</v>
+      </c>
+      <c r="AL36">
+        <v>0.93141470419896921</v>
+      </c>
+    </row>
+    <row r="37" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>38</v>
       </c>
@@ -21007,16 +21997,16 @@
         <v>38</v>
       </c>
       <c r="K37">
-        <v>92.499156567098325</v>
+        <v>93.834808259587021</v>
       </c>
       <c r="L37">
-        <v>0.39579492909288549</v>
+        <v>0.32136073001566351</v>
       </c>
       <c r="M37">
-        <v>0.92499156567098328</v>
+        <v>0.93834808259587033</v>
       </c>
       <c r="N37">
-        <v>0.9220731075891837</v>
+        <v>0.93974806805362898</v>
       </c>
       <c r="P37" t="s">
         <v>38</v>
@@ -21048,8 +22038,38 @@
       <c r="Z37">
         <v>0.97175117223872609</v>
       </c>
-    </row>
-    <row r="38" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC37">
+        <v>91.238938053097343</v>
+      </c>
+      <c r="AD37">
+        <v>0.69517039403691072</v>
+      </c>
+      <c r="AE37">
+        <v>0.9123893805309734</v>
+      </c>
+      <c r="AF37">
+        <v>0.90822779188323177</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI37">
+        <v>89.060199482694486</v>
+      </c>
+      <c r="AJ37">
+        <v>0.4857460238948173</v>
+      </c>
+      <c r="AK37">
+        <v>0.89060199482694491</v>
+      </c>
+      <c r="AL37">
+        <v>0.87094370463015092</v>
+      </c>
+    </row>
+    <row r="38" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
         <v>39</v>
       </c>
@@ -21069,16 +22089,16 @@
         <v>39</v>
       </c>
       <c r="K38">
-        <v>64.520886858882861</v>
+        <v>68.531215667955607</v>
       </c>
       <c r="L38">
-        <v>2.3778684974588411</v>
+        <v>1.571541916245937</v>
       </c>
       <c r="M38">
-        <v>0.64520886858882864</v>
+        <v>0.68531215667955603</v>
       </c>
       <c r="N38">
-        <v>0.59484702972158099</v>
+        <v>0.62472010525302646</v>
       </c>
       <c r="P38" t="s">
         <v>39</v>
@@ -21110,8 +22130,38 @@
       <c r="Z38">
         <v>0.57674888682249326</v>
       </c>
-    </row>
-    <row r="39" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC38">
+        <v>52.105381534442337</v>
+      </c>
+      <c r="AD38">
+        <v>12.33147769630833</v>
+      </c>
+      <c r="AE38">
+        <v>0.52105381534442341</v>
+      </c>
+      <c r="AF38">
+        <v>0.4406412312380098</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI38">
+        <v>65.14701684270625</v>
+      </c>
+      <c r="AJ38">
+        <v>1.4444179007210181</v>
+      </c>
+      <c r="AK38">
+        <v>0.65147016842706251</v>
+      </c>
+      <c r="AL38">
+        <v>0.62494280697971016</v>
+      </c>
+    </row>
+    <row r="39" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -21131,16 +22181,16 @@
         <v>40</v>
       </c>
       <c r="K39">
-        <v>93.598820058997049</v>
+        <v>95.044247787610615</v>
       </c>
       <c r="L39">
-        <v>0.41152053656143189</v>
+        <v>0.26692553428899729</v>
       </c>
       <c r="M39">
-        <v>0.93598820058997045</v>
+        <v>0.95044247787610625</v>
       </c>
       <c r="N39">
-        <v>0.93169330204021716</v>
+        <v>0.94910984089969563</v>
       </c>
       <c r="P39" t="s">
         <v>40</v>
@@ -21172,8 +22222,38 @@
       <c r="Z39">
         <v>0.92916186132018708</v>
       </c>
-    </row>
-    <row r="40" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC39">
+        <v>96.371681415929203</v>
+      </c>
+      <c r="AD39">
+        <v>8.8762217644862945E-2</v>
+      </c>
+      <c r="AE39">
+        <v>0.963716814159292</v>
+      </c>
+      <c r="AF39">
+        <v>0.96345222206115011</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI39">
+        <v>84.247787610619469</v>
+      </c>
+      <c r="AJ39">
+        <v>0.80355924844077919</v>
+      </c>
+      <c r="AK39">
+        <v>0.84247787610619473</v>
+      </c>
+      <c r="AL39">
+        <v>0.83486078297494049</v>
+      </c>
+    </row>
+    <row r="40" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>41</v>
       </c>
@@ -21193,16 +22273,16 @@
         <v>41</v>
       </c>
       <c r="K40">
-        <v>86.637168141592923</v>
+        <v>75.498749989186763</v>
       </c>
       <c r="L40">
-        <v>0.70116259260398206</v>
+        <v>1.4084799832159429</v>
       </c>
       <c r="M40">
-        <v>0.86637168141592924</v>
+        <v>0.75498749989186753</v>
       </c>
       <c r="N40">
-        <v>0.86697546704663409</v>
+        <v>0.73854447527399192</v>
       </c>
       <c r="P40" t="s">
         <v>41</v>
@@ -21234,8 +22314,38 @@
       <c r="Z40">
         <v>0.81725308662508955</v>
       </c>
-    </row>
-    <row r="41" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC40">
+        <v>69.786849367209058</v>
+      </c>
+      <c r="AD40">
+        <v>6.6491133915405669</v>
+      </c>
+      <c r="AE40">
+        <v>0.69786849367209058</v>
+      </c>
+      <c r="AF40">
+        <v>0.66915113206326682</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI40">
+        <v>73.924687929826376</v>
+      </c>
+      <c r="AJ40">
+        <v>2.4337657603675118</v>
+      </c>
+      <c r="AK40">
+        <v>0.73924687929826383</v>
+      </c>
+      <c r="AL40">
+        <v>0.71987569292319553</v>
+      </c>
+    </row>
+    <row r="41" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
         <v>42</v>
       </c>
@@ -21255,16 +22365,16 @@
         <v>42</v>
       </c>
       <c r="K41">
-        <v>92.800197233540075</v>
+        <v>95.718475073313783</v>
       </c>
       <c r="L41">
-        <v>2.5971127490006798</v>
+        <v>0.17436094593281279</v>
       </c>
       <c r="M41">
-        <v>0.92800197233540094</v>
+        <v>0.95718475073313791</v>
       </c>
       <c r="N41">
-        <v>0.92124042819220819</v>
+        <v>0.95307979512966923</v>
       </c>
       <c r="P41" t="s">
         <v>42</v>
@@ -21296,8 +22406,38 @@
       <c r="Z41">
         <v>0.96169140611913018</v>
       </c>
-    </row>
-    <row r="42" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC41">
+        <v>84.509814098737877</v>
+      </c>
+      <c r="AD41">
+        <v>1.611974809040162</v>
+      </c>
+      <c r="AE41">
+        <v>0.84509814098737868</v>
+      </c>
+      <c r="AF41">
+        <v>0.81918172625144992</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI41">
+        <v>96.666666666666657</v>
+      </c>
+      <c r="AJ41">
+        <v>6.2795968607800234E-2</v>
+      </c>
+      <c r="AK41">
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="AL41">
+        <v>0.96652989519328825</v>
+      </c>
+    </row>
+    <row r="42" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
         <v>43</v>
       </c>
@@ -21317,16 +22457,16 @@
         <v>43</v>
       </c>
       <c r="K42">
-        <v>89.174041297935105</v>
+        <v>96.106194690265482</v>
       </c>
       <c r="L42">
-        <v>0.46288584608513578</v>
+        <v>0.25968811449160312</v>
       </c>
       <c r="M42">
-        <v>0.89174041297935103</v>
+        <v>0.9610619469026549</v>
       </c>
       <c r="N42">
-        <v>0.88680679770573545</v>
+        <v>0.95802323786440202</v>
       </c>
       <c r="P42" t="s">
         <v>43</v>
@@ -21358,8 +22498,38 @@
       <c r="Z42">
         <v>0.84517412245484991</v>
       </c>
-    </row>
-    <row r="43" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC42">
+        <v>89.682263687402127</v>
+      </c>
+      <c r="AD42">
+        <v>1.649345447035178</v>
+      </c>
+      <c r="AE42">
+        <v>0.89682263687402153</v>
+      </c>
+      <c r="AF42">
+        <v>0.87142209719805364</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI42">
+        <v>86.135693215339231</v>
+      </c>
+      <c r="AJ42">
+        <v>1.3697271511287969</v>
+      </c>
+      <c r="AK42">
+        <v>0.86135693215339226</v>
+      </c>
+      <c r="AL42">
+        <v>0.83851592731580715</v>
+      </c>
+    </row>
+    <row r="43" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
         <v>44</v>
       </c>
@@ -21379,16 +22549,16 @@
         <v>44</v>
       </c>
       <c r="K43">
-        <v>76.694608084845029</v>
+        <v>74.907049368939184</v>
       </c>
       <c r="L43">
-        <v>0.94855706560740582</v>
+        <v>2.6884866957255631</v>
       </c>
       <c r="M43">
-        <v>0.76694608084845028</v>
+        <v>0.74907049368939183</v>
       </c>
       <c r="N43">
-        <v>0.75154429971884451</v>
+        <v>0.71776339956379331</v>
       </c>
       <c r="P43" t="s">
         <v>44</v>
@@ -21420,8 +22590,38 @@
       <c r="Z43">
         <v>0.79328753128993013</v>
       </c>
-    </row>
-    <row r="44" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB43" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC43">
+        <v>67.950414795975746</v>
+      </c>
+      <c r="AD43">
+        <v>3.015851596715502</v>
+      </c>
+      <c r="AE43">
+        <v>0.67950414795975744</v>
+      </c>
+      <c r="AF43">
+        <v>0.65568306496153872</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI43">
+        <v>80.24688794885769</v>
+      </c>
+      <c r="AJ43">
+        <v>1.623595086205964</v>
+      </c>
+      <c r="AK43">
+        <v>0.80246887948857692</v>
+      </c>
+      <c r="AL43">
+        <v>0.79509631837190575</v>
+      </c>
+    </row>
+    <row r="44" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -21441,16 +22641,16 @@
         <v>45</v>
       </c>
       <c r="K44">
-        <v>85.752212389380531</v>
+        <v>88.733812576233362</v>
       </c>
       <c r="L44">
-        <v>1.891693233433521</v>
+        <v>2.846476825485774</v>
       </c>
       <c r="M44">
-        <v>0.85752212389380522</v>
+        <v>0.88733812576233362</v>
       </c>
       <c r="N44">
-        <v>0.84801981424296091</v>
+        <v>0.8855558310760856</v>
       </c>
       <c r="P44" t="s">
         <v>45</v>
@@ -21482,8 +22682,38 @@
       <c r="Z44">
         <v>0.88036036286130448</v>
       </c>
-    </row>
-    <row r="45" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC44">
+        <v>90.884955752212392</v>
+      </c>
+      <c r="AD44">
+        <v>0.87181255477120878</v>
+      </c>
+      <c r="AE44">
+        <v>0.90884955752212393</v>
+      </c>
+      <c r="AF44">
+        <v>0.90326517636015224</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI44">
+        <v>82.359882005899706</v>
+      </c>
+      <c r="AJ44">
+        <v>1.275587854943925</v>
+      </c>
+      <c r="AK44">
+        <v>0.82359882005899698</v>
+      </c>
+      <c r="AL44">
+        <v>0.81457724225213224</v>
+      </c>
+    </row>
+    <row r="45" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
         <v>46</v>
       </c>
@@ -21503,16 +22733,16 @@
         <v>46</v>
       </c>
       <c r="K45">
-        <v>85.103244837758112</v>
+        <v>76.578171091445427</v>
       </c>
       <c r="L45">
-        <v>0.90114320968691786</v>
+        <v>2.5362299997508941</v>
       </c>
       <c r="M45">
-        <v>0.85103244837758107</v>
+        <v>0.76578171091445424</v>
       </c>
       <c r="N45">
-        <v>0.84794014082711511</v>
+        <v>0.76239845745954904</v>
       </c>
       <c r="P45" t="s">
         <v>46</v>
@@ -21544,8 +22774,38 @@
       <c r="Z45">
         <v>0.78168328551948052</v>
       </c>
-    </row>
-    <row r="46" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC45">
+        <v>81.890327771001481</v>
+      </c>
+      <c r="AD45">
+        <v>1.0721079466888199</v>
+      </c>
+      <c r="AE45">
+        <v>0.81890327771001492</v>
+      </c>
+      <c r="AF45">
+        <v>0.8140222393432317</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI45">
+        <v>85.634218289085553</v>
+      </c>
+      <c r="AJ45">
+        <v>1.4362940188995861</v>
+      </c>
+      <c r="AK45">
+        <v>0.8563421828908554</v>
+      </c>
+      <c r="AL45">
+        <v>0.86027356320273596</v>
+      </c>
+    </row>
+    <row r="46" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D46" t="s">
         <v>47</v>
       </c>
@@ -21565,16 +22825,16 @@
         <v>47</v>
       </c>
       <c r="K46">
-        <v>82.31100615057224</v>
+        <v>77.268315469857015</v>
       </c>
       <c r="L46">
-        <v>0.69346144573091895</v>
+        <v>1.1190281023566251</v>
       </c>
       <c r="M46">
-        <v>0.82311006150572241</v>
+        <v>0.77268315469856996</v>
       </c>
       <c r="N46">
-        <v>0.80138614957570198</v>
+        <v>0.73607033132288902</v>
       </c>
       <c r="P46" t="s">
         <v>47</v>
@@ -21606,8 +22866,38 @@
       <c r="Z46">
         <v>0.716906432806516</v>
       </c>
-    </row>
-    <row r="47" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC46">
+        <v>61.840586856287679</v>
+      </c>
+      <c r="AD46">
+        <v>9.0857302409590766</v>
+      </c>
+      <c r="AE46">
+        <v>0.61840586856287683</v>
+      </c>
+      <c r="AF46">
+        <v>0.52980290050315848</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI46">
+        <v>72.165070632098903</v>
+      </c>
+      <c r="AJ46">
+        <v>1.8701816167246339</v>
+      </c>
+      <c r="AK46">
+        <v>0.72165070632098893</v>
+      </c>
+      <c r="AL46">
+        <v>0.65772672242716512</v>
+      </c>
+    </row>
+    <row r="47" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D47" t="s">
         <v>48</v>
       </c>
@@ -21627,16 +22917,16 @@
         <v>48</v>
       </c>
       <c r="K47">
-        <v>74.317943926850575</v>
+        <v>80.825958702064895</v>
       </c>
       <c r="L47">
-        <v>2.096987044898833</v>
+        <v>1.6501052049613121</v>
       </c>
       <c r="M47">
-        <v>0.74317943926850583</v>
+        <v>0.80825958702064893</v>
       </c>
       <c r="N47">
-        <v>0.68661005854782853</v>
+        <v>0.77474285921224506</v>
       </c>
       <c r="P47" t="s">
         <v>48</v>
@@ -21668,8 +22958,38 @@
       <c r="Z47">
         <v>0.73159708631360609</v>
       </c>
-    </row>
-    <row r="48" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="AB47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC47">
+        <v>92.418879056047189</v>
+      </c>
+      <c r="AD47">
+        <v>0.61357527706944992</v>
+      </c>
+      <c r="AE47">
+        <v>0.92418879056047198</v>
+      </c>
+      <c r="AF47">
+        <v>0.91331405798819953</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI47">
+        <v>81.56342182890856</v>
+      </c>
+      <c r="AJ47">
+        <v>1.429435142463662</v>
+      </c>
+      <c r="AK47">
+        <v>0.81563421828908544</v>
+      </c>
+      <c r="AL47">
+        <v>0.78584465333877085</v>
+      </c>
+    </row>
+    <row r="48" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D48" t="s">
         <v>49</v>
       </c>
@@ -21689,16 +23009,16 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>100</v>
+        <v>89.233038348082601</v>
       </c>
       <c r="L48">
-        <v>1.6619287763300389E-3</v>
+        <v>0.73950379222060092</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0.89233038348082583</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.87539278465165038</v>
       </c>
       <c r="P48" t="s">
         <v>49</v>
@@ -21729,6 +23049,36 @@
       </c>
       <c r="Z48">
         <v>0.9191785435737998</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC48">
+        <v>94.896755162241888</v>
+      </c>
+      <c r="AD48">
+        <v>0.51937565425205867</v>
+      </c>
+      <c r="AE48">
+        <v>0.94896755162241886</v>
+      </c>
+      <c r="AF48">
+        <v>0.93675460246812658</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI48">
+        <v>93.451327433628322</v>
+      </c>
+      <c r="AJ48">
+        <v>0.19980474192219519</v>
+      </c>
+      <c r="AK48">
+        <v>0.93451327433628317</v>
+      </c>
+      <c r="AL48">
+        <v>0.92301927612350565</v>
       </c>
     </row>
     <row r="49" spans="4:35" x14ac:dyDescent="0.15">
@@ -21744,7 +23094,7 @@
       </c>
       <c r="K49">
         <f>AVERAGE(K4:K48)</f>
-        <v>80.818453831299976</v>
+        <v>80.84305227553871</v>
       </c>
       <c r="P49" t="s">
         <v>50</v>
@@ -21763,16 +23113,16 @@
       <c r="AB49" t="s">
         <v>50</v>
       </c>
-      <c r="AC49" t="e">
+      <c r="AC49">
         <f>AVERAGE(AC4:AC48)</f>
-        <v>#DIV/0!</v>
+        <v>78.564522376683357</v>
       </c>
       <c r="AH49" t="s">
         <v>50</v>
       </c>
-      <c r="AI49" t="e">
+      <c r="AI49">
         <f>AVERAGE(AI4:AI48)</f>
-        <v>#DIV/0!</v>
+        <v>80.324902849025023</v>
       </c>
     </row>
   </sheetData>
@@ -21800,7 +23150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6518DF11-735B-439A-9EC3-1B9227BFC550}">
   <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Results/summary_psdLDS_5_fold_eva.xlsx
+++ b/Results/summary_psdLDS_5_fold_eva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\channelmatrix_2d\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC03450-0610-430F-B0FA-D98C7D6BD0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15D3549-7D3A-43D6-8B14-C9E9994FC911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="2" r:id="rId1"/>
@@ -652,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812FEE00-37CD-4574-A5FD-C310DAF701EF}">
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3102,16 +3102,16 @@
         <v>5</v>
       </c>
       <c r="Q54">
-        <v>32.146731373108757</v>
+        <v>26.095035424181869</v>
       </c>
       <c r="R54">
-        <v>8.2703852913821567</v>
+        <v>6.6360217154026033</v>
       </c>
       <c r="S54">
-        <v>0.32146731373108761</v>
+        <v>0.26095035424181873</v>
       </c>
       <c r="T54">
-        <v>0.17978975418954521</v>
+        <v>0.16357030180330329</v>
       </c>
     </row>
     <row r="55" spans="4:20" x14ac:dyDescent="0.25">
@@ -3149,16 +3149,16 @@
         <v>6</v>
       </c>
       <c r="Q55">
-        <v>50.79386499883217</v>
+        <v>52.573811192138344</v>
       </c>
       <c r="R55">
-        <v>2.9245147777827678</v>
+        <v>2.4471324447550589</v>
       </c>
       <c r="S55">
-        <v>0.50793864998832172</v>
+        <v>0.52573811192138342</v>
       </c>
       <c r="T55">
-        <v>0.3980725976767151</v>
+        <v>0.4286911503108321</v>
       </c>
     </row>
     <row r="56" spans="4:20" x14ac:dyDescent="0.25">
@@ -3196,16 +3196,16 @@
         <v>7</v>
       </c>
       <c r="Q56">
-        <v>67.057587003347777</v>
+        <v>66.152994403065776</v>
       </c>
       <c r="R56">
-        <v>19.065013493942871</v>
+        <v>35.177812273718637</v>
       </c>
       <c r="S56">
-        <v>0.67057587003347785</v>
+        <v>0.66152994403065768</v>
       </c>
       <c r="T56">
-        <v>0.62131994079220498</v>
+        <v>0.62028219480450919</v>
       </c>
     </row>
     <row r="57" spans="4:20" x14ac:dyDescent="0.25">
@@ -3243,16 +3243,16 @@
         <v>8</v>
       </c>
       <c r="Q57">
-        <v>59.117898943762476</v>
+        <v>57.60992742151749</v>
       </c>
       <c r="R57">
-        <v>2.223138388362683</v>
+        <v>2.4528956392096122</v>
       </c>
       <c r="S57">
-        <v>0.59117898943762492</v>
+        <v>0.57609927421517493</v>
       </c>
       <c r="T57">
-        <v>0.56826545649876747</v>
+        <v>0.55365409731529525</v>
       </c>
     </row>
     <row r="58" spans="4:20" x14ac:dyDescent="0.25">
@@ -3290,16 +3290,16 @@
         <v>9</v>
       </c>
       <c r="Q58">
-        <v>61.347329994204109</v>
+        <v>43.09423091895259</v>
       </c>
       <c r="R58">
-        <v>3.041629327804185</v>
+        <v>2.5452294551666239</v>
       </c>
       <c r="S58">
-        <v>0.61347329994204103</v>
+        <v>0.43094230918952581</v>
       </c>
       <c r="T58">
-        <v>0.5562525247779303</v>
+        <v>0.33102013490686938</v>
       </c>
     </row>
     <row r="59" spans="4:20" x14ac:dyDescent="0.25">
@@ -3337,16 +3337,16 @@
         <v>10</v>
       </c>
       <c r="Q59">
-        <v>93.102016453429528</v>
+        <v>85.962335314319333</v>
       </c>
       <c r="R59">
-        <v>0.29857158687014668</v>
+        <v>0.54332699125272654</v>
       </c>
       <c r="S59">
-        <v>0.93102016453429537</v>
+        <v>0.85962335314319327</v>
       </c>
       <c r="T59">
-        <v>0.93111692264375168</v>
+        <v>0.8533067929317415</v>
       </c>
     </row>
     <row r="60" spans="4:20" x14ac:dyDescent="0.25">
@@ -3384,16 +3384,16 @@
         <v>11</v>
       </c>
       <c r="Q60">
-        <v>80.929333298730953</v>
+        <v>79.873441811780381</v>
       </c>
       <c r="R60">
-        <v>2.460992548287789</v>
+        <v>1.229929539777519</v>
       </c>
       <c r="S60">
-        <v>0.80929333298730965</v>
+        <v>0.79873441811780377</v>
       </c>
       <c r="T60">
-        <v>0.77212310788540006</v>
+        <v>0.76381110217586412</v>
       </c>
     </row>
     <row r="61" spans="4:20" x14ac:dyDescent="0.25">
@@ -3431,16 +3431,16 @@
         <v>12</v>
       </c>
       <c r="Q61">
-        <v>88.73891642661269</v>
+        <v>82.813519148089512</v>
       </c>
       <c r="R61">
-        <v>1.0105976304132269</v>
+        <v>2.4225514201219909</v>
       </c>
       <c r="S61">
-        <v>0.88738916426612691</v>
+        <v>0.82813519148089509</v>
       </c>
       <c r="T61">
-        <v>0.86949928604238347</v>
+        <v>0.80386047351513701</v>
       </c>
     </row>
     <row r="62" spans="4:20" x14ac:dyDescent="0.25">
@@ -3478,16 +3478,16 @@
         <v>13</v>
       </c>
       <c r="Q62">
-        <v>79.394717947387079</v>
+        <v>85.17262260054153</v>
       </c>
       <c r="R62">
-        <v>1.3341127731361131</v>
+        <v>1.3150464649252669</v>
       </c>
       <c r="S62">
-        <v>0.79394717947387083</v>
+        <v>0.85172622600541525</v>
       </c>
       <c r="T62">
-        <v>0.77364706069648381</v>
+        <v>0.83158752018947157</v>
       </c>
     </row>
     <row r="63" spans="4:20" x14ac:dyDescent="0.25">
@@ -3525,16 +3525,16 @@
         <v>14</v>
       </c>
       <c r="Q63">
-        <v>91.574321577176278</v>
+        <v>86.355677817282157</v>
       </c>
       <c r="R63">
-        <v>0.59570969136362684</v>
+        <v>0.78182809102508033</v>
       </c>
       <c r="S63">
-        <v>0.91574321577176276</v>
+        <v>0.86355677817282162</v>
       </c>
       <c r="T63">
-        <v>0.9129277405945132</v>
+        <v>0.85636005579308727</v>
       </c>
     </row>
     <row r="64" spans="4:20" x14ac:dyDescent="0.25">
@@ -3572,16 +3572,16 @@
         <v>15</v>
       </c>
       <c r="Q64">
-        <v>79.177155511725886</v>
+        <v>86.78466076696165</v>
       </c>
       <c r="R64">
-        <v>1.3325729599778631</v>
+        <v>1.3373674401971469</v>
       </c>
       <c r="S64">
-        <v>0.79177155511725883</v>
+        <v>0.86784660766961663</v>
       </c>
       <c r="T64">
-        <v>0.7839046618164065</v>
+        <v>0.85996309863337095</v>
       </c>
     </row>
     <row r="65" spans="4:20" x14ac:dyDescent="0.25">
@@ -3619,16 +3619,16 @@
         <v>16</v>
       </c>
       <c r="Q65">
-        <v>91.268436578171091</v>
+        <v>86.183530999403104</v>
       </c>
       <c r="R65">
-        <v>0.93978581419711882</v>
+        <v>1.451211954720901</v>
       </c>
       <c r="S65">
-        <v>0.91268436578171086</v>
+        <v>0.86183530999403113</v>
       </c>
       <c r="T65">
-        <v>0.89974995936388458</v>
+        <v>0.85365474054557899</v>
       </c>
     </row>
     <row r="66" spans="4:20" x14ac:dyDescent="0.25">
@@ -3666,16 +3666,16 @@
         <v>17</v>
       </c>
       <c r="Q66">
-        <v>86.165191740412979</v>
+        <v>87.846607669616517</v>
       </c>
       <c r="R66">
-        <v>0.97627342006590678</v>
+        <v>1.5474847130739799</v>
       </c>
       <c r="S66">
-        <v>0.86165191740412972</v>
+        <v>0.87846607669616517</v>
       </c>
       <c r="T66">
-        <v>0.83590143759727076</v>
+        <v>0.85650897867553044</v>
       </c>
     </row>
     <row r="67" spans="4:20" x14ac:dyDescent="0.25">
@@ -3713,16 +3713,16 @@
         <v>18</v>
       </c>
       <c r="Q67">
-        <v>75.811209439528028</v>
+        <v>82.743362831858406</v>
       </c>
       <c r="R67">
-        <v>1.2913160530185841</v>
+        <v>1.6682141418153911</v>
       </c>
       <c r="S67">
-        <v>0.75811209439528027</v>
+        <v>0.82743362831858414</v>
       </c>
       <c r="T67">
-        <v>0.75024494432633915</v>
+        <v>0.80667417661014584</v>
       </c>
     </row>
     <row r="68" spans="4:20" x14ac:dyDescent="0.25">
@@ -3760,16 +3760,16 @@
         <v>19</v>
       </c>
       <c r="Q68">
-        <v>84.660766961651916</v>
+        <v>83.043538438913828</v>
       </c>
       <c r="R68">
-        <v>0.78407385950993858</v>
+        <v>0.55502281371983653</v>
       </c>
       <c r="S68">
-        <v>0.84660766961651923</v>
+        <v>0.83043538438913844</v>
       </c>
       <c r="T68">
-        <v>0.82564947303725056</v>
+        <v>0.80843702243427606</v>
       </c>
     </row>
     <row r="69" spans="4:20" x14ac:dyDescent="0.25">
@@ -3807,16 +3807,16 @@
         <v>20</v>
       </c>
       <c r="Q69">
-        <v>66.388809591778482</v>
+        <v>65.814756183011966</v>
       </c>
       <c r="R69">
-        <v>5.4448807199734794</v>
+        <v>5.6400054578772938</v>
       </c>
       <c r="S69">
-        <v>0.66388809591778475</v>
+        <v>0.65814756183011958</v>
       </c>
       <c r="T69">
-        <v>0.63760777679330971</v>
+        <v>0.64559365913480904</v>
       </c>
     </row>
     <row r="70" spans="4:20" x14ac:dyDescent="0.25">
@@ -3854,16 +3854,16 @@
         <v>21</v>
       </c>
       <c r="Q70">
-        <v>95.693215339233035</v>
+        <v>95.014749262536867</v>
       </c>
       <c r="R70">
-        <v>0.52467311162829344</v>
+        <v>0.3479957232430308</v>
       </c>
       <c r="S70">
-        <v>0.9569321533923304</v>
+        <v>0.95014749262536868</v>
       </c>
       <c r="T70">
-        <v>0.95202338433413336</v>
+        <v>0.94637859347959541</v>
       </c>
     </row>
     <row r="71" spans="4:20" x14ac:dyDescent="0.25">
@@ -3901,16 +3901,16 @@
         <v>22</v>
       </c>
       <c r="Q71">
-        <v>88.221524407650591</v>
+        <v>92.452356854298046</v>
       </c>
       <c r="R71">
-        <v>4.3336337218596164</v>
+        <v>1.1845359226696059</v>
       </c>
       <c r="S71">
-        <v>0.88221524407650587</v>
+        <v>0.92452356854298046</v>
       </c>
       <c r="T71">
-        <v>0.85456583544540943</v>
+        <v>0.90150883318456343</v>
       </c>
     </row>
     <row r="72" spans="4:20" x14ac:dyDescent="0.25">
@@ -3948,16 +3948,16 @@
         <v>23</v>
       </c>
       <c r="Q72">
-        <v>62.419744115433517</v>
+        <v>58.382165935691482</v>
       </c>
       <c r="R72">
-        <v>14.72940313450956</v>
+        <v>15.02756629641279</v>
       </c>
       <c r="S72">
-        <v>0.62419744115433518</v>
+        <v>0.58382165935691488</v>
       </c>
       <c r="T72">
-        <v>0.55529428814895443</v>
+        <v>0.51368254555906623</v>
       </c>
     </row>
     <row r="73" spans="4:20" x14ac:dyDescent="0.25">
@@ -3995,16 +3995,16 @@
         <v>24</v>
       </c>
       <c r="Q73">
-        <v>93.659720239794453</v>
+        <v>93.126843657817105</v>
       </c>
       <c r="R73">
-        <v>0.43836539303543293</v>
+        <v>1.63582834974545</v>
       </c>
       <c r="S73">
-        <v>0.93659720239794453</v>
+        <v>0.93126843657817115</v>
       </c>
       <c r="T73">
-        <v>0.93103790048814206</v>
+        <v>0.90916487100606691</v>
       </c>
     </row>
     <row r="74" spans="4:20" x14ac:dyDescent="0.25">
@@ -4042,16 +4042,16 @@
         <v>25</v>
       </c>
       <c r="Q74">
-        <v>67.705343471829337</v>
+        <v>62.100364190001642</v>
       </c>
       <c r="R74">
-        <v>2.4068033331057972</v>
+        <v>2.1994846734467841</v>
       </c>
       <c r="S74">
-        <v>0.67705343471829349</v>
+        <v>0.62100364190001645</v>
       </c>
       <c r="T74">
-        <v>0.62744648909832546</v>
+        <v>0.58867489603643752</v>
       </c>
     </row>
     <row r="75" spans="4:20" x14ac:dyDescent="0.25">
@@ -4089,16 +4089,16 @@
         <v>26</v>
       </c>
       <c r="Q75">
-        <v>81.858407079646014</v>
+        <v>85.044247787610615</v>
       </c>
       <c r="R75">
-        <v>1.5695808861244791</v>
+        <v>0.99586064379672146</v>
       </c>
       <c r="S75">
-        <v>0.81858407079646012</v>
+        <v>0.85044247787610627</v>
       </c>
       <c r="T75">
-        <v>0.80088068256081313</v>
+        <v>0.82605717480383389</v>
       </c>
     </row>
     <row r="76" spans="4:20" x14ac:dyDescent="0.25">
@@ -4136,16 +4136,16 @@
         <v>27</v>
       </c>
       <c r="Q76">
-        <v>91.587816503602966</v>
+        <v>90.95312243185495</v>
       </c>
       <c r="R76">
-        <v>0.34433096007296088</v>
+        <v>0.38909375793918938</v>
       </c>
       <c r="S76">
-        <v>0.9158781650360297</v>
+        <v>0.90953122431854949</v>
       </c>
       <c r="T76">
-        <v>0.91087306200108142</v>
+        <v>0.9067511894254473</v>
       </c>
     </row>
     <row r="77" spans="4:20" x14ac:dyDescent="0.25">
@@ -4183,16 +4183,16 @@
         <v>28</v>
       </c>
       <c r="Q77">
-        <v>91.681415929203538</v>
+        <v>91.061946902654867</v>
       </c>
       <c r="R77">
-        <v>1.018010680576579</v>
+        <v>0.97594681795005145</v>
       </c>
       <c r="S77">
-        <v>0.91681415929203536</v>
+        <v>0.91061946902654856</v>
       </c>
       <c r="T77">
-        <v>0.89490836858028611</v>
+        <v>0.88866805511533065</v>
       </c>
     </row>
     <row r="78" spans="4:20" x14ac:dyDescent="0.25">
@@ -4230,16 +4230,16 @@
         <v>29</v>
       </c>
       <c r="Q78">
-        <v>90.678466076696168</v>
+        <v>86.94997361568872</v>
       </c>
       <c r="R78">
-        <v>0.59061590583961121</v>
+        <v>0.60684125696928548</v>
       </c>
       <c r="S78">
-        <v>0.90678466076696174</v>
+        <v>0.86949973615688714</v>
       </c>
       <c r="T78">
-        <v>0.89976743843762319</v>
+        <v>0.8598908835930047</v>
       </c>
     </row>
     <row r="79" spans="4:20" x14ac:dyDescent="0.25">
@@ -4277,16 +4277,16 @@
         <v>30</v>
       </c>
       <c r="Q79">
-        <v>90.914454277286126</v>
+        <v>90.009688665126859</v>
       </c>
       <c r="R79">
-        <v>0.89200673385068929</v>
+        <v>0.960440194540787</v>
       </c>
       <c r="S79">
-        <v>0.90914454277286139</v>
+        <v>0.90009688665126864</v>
       </c>
       <c r="T79">
-        <v>0.88211012661567967</v>
+        <v>0.8765712464510399</v>
       </c>
     </row>
     <row r="80" spans="4:20" x14ac:dyDescent="0.25">
@@ -4324,16 +4324,16 @@
         <v>31</v>
       </c>
       <c r="Q80">
-        <v>95.899705014749259</v>
+        <v>95.907836572980742</v>
       </c>
       <c r="R80">
-        <v>8.6716442872406277E-2</v>
+        <v>0.1084223422628308</v>
       </c>
       <c r="S80">
-        <v>0.9589970501474927</v>
+        <v>0.95907836572980742</v>
       </c>
       <c r="T80">
-        <v>0.95560968669821733</v>
+        <v>0.95744041036451077</v>
       </c>
     </row>
     <row r="81" spans="4:20" x14ac:dyDescent="0.25">
@@ -4371,16 +4371,16 @@
         <v>32</v>
       </c>
       <c r="Q81">
-        <v>84.178842377529207</v>
+        <v>79.391690239534938</v>
       </c>
       <c r="R81">
-        <v>0.67175331592111531</v>
+        <v>2.550652983060766</v>
       </c>
       <c r="S81">
-        <v>0.84178842377529217</v>
+        <v>0.79391690239534951</v>
       </c>
       <c r="T81">
-        <v>0.82732164909290962</v>
+        <v>0.74747640709686447</v>
       </c>
     </row>
     <row r="82" spans="4:20" x14ac:dyDescent="0.25">
@@ -4418,16 +4418,16 @@
         <v>33</v>
       </c>
       <c r="Q82">
-        <v>74.626683621830637</v>
+        <v>77.488732601493098</v>
       </c>
       <c r="R82">
-        <v>1.487248145769249</v>
+        <v>0.82620364273339941</v>
       </c>
       <c r="S82">
-        <v>0.74626683621830636</v>
+        <v>0.77488732601493093</v>
       </c>
       <c r="T82">
-        <v>0.73476032276247982</v>
+        <v>0.75964628585408822</v>
       </c>
     </row>
     <row r="83" spans="4:20" x14ac:dyDescent="0.25">
@@ -4465,16 +4465,16 @@
         <v>34</v>
       </c>
       <c r="Q83">
-        <v>89.823008849557525</v>
+        <v>82.507374631268434</v>
       </c>
       <c r="R83">
-        <v>1.1462513316933549</v>
+        <v>1.4128568963950869</v>
       </c>
       <c r="S83">
-        <v>0.89823008849557517</v>
+        <v>0.82507374631268449</v>
       </c>
       <c r="T83">
-        <v>0.89636848754452081</v>
+        <v>0.80115117890925958</v>
       </c>
     </row>
     <row r="84" spans="4:20" x14ac:dyDescent="0.25">
@@ -4512,16 +4512,16 @@
         <v>35</v>
       </c>
       <c r="Q84">
-        <v>89.476639071272245</v>
+        <v>92.510315833181949</v>
       </c>
       <c r="R84">
-        <v>0.57167123049744828</v>
+        <v>0.44888073911521381</v>
       </c>
       <c r="S84">
-        <v>0.89476639071272235</v>
+        <v>0.92510315833181944</v>
       </c>
       <c r="T84">
-        <v>0.87426018671774375</v>
+        <v>0.92305743112136951</v>
       </c>
     </row>
     <row r="85" spans="4:20" x14ac:dyDescent="0.25">
@@ -4559,16 +4559,16 @@
         <v>36</v>
       </c>
       <c r="Q85">
-        <v>99.233038348082601</v>
+        <v>97.345132743362825</v>
       </c>
       <c r="R85">
-        <v>3.5747345873378578E-2</v>
+        <v>5.7781885212892369E-2</v>
       </c>
       <c r="S85">
-        <v>0.99233038348082592</v>
+        <v>0.97345132743362828</v>
       </c>
       <c r="T85">
-        <v>0.99230479934947535</v>
+        <v>0.97306391900434142</v>
       </c>
     </row>
     <row r="86" spans="4:20" x14ac:dyDescent="0.25">
@@ -4606,16 +4606,16 @@
         <v>37</v>
       </c>
       <c r="Q86">
-        <v>94.513274336283189</v>
+        <v>97.079646017699105</v>
       </c>
       <c r="R86">
-        <v>0.77045469125687105</v>
+        <v>0.66540763231848055</v>
       </c>
       <c r="S86">
-        <v>0.94513274336283182</v>
+        <v>0.97079646017699106</v>
       </c>
       <c r="T86">
-        <v>0.94251745372032636</v>
+        <v>0.96939811710802704</v>
       </c>
     </row>
     <row r="87" spans="4:20" x14ac:dyDescent="0.25">
@@ -4653,16 +4653,16 @@
         <v>38</v>
       </c>
       <c r="Q87">
-        <v>90.589970501474937</v>
+        <v>88.873606173063791</v>
       </c>
       <c r="R87">
-        <v>0.54129509043753465</v>
+        <v>0.53196490681579023</v>
       </c>
       <c r="S87">
-        <v>0.90589970501474926</v>
+        <v>0.88873606173063779</v>
       </c>
       <c r="T87">
-        <v>0.89737141411342125</v>
+        <v>0.88615381738233145</v>
       </c>
     </row>
     <row r="88" spans="4:20" x14ac:dyDescent="0.25">
@@ -4700,16 +4700,16 @@
         <v>39</v>
       </c>
       <c r="Q88">
-        <v>71.135476950492645</v>
+        <v>77.720222493274164</v>
       </c>
       <c r="R88">
-        <v>1.3638609063724281</v>
+        <v>1.226761607446103</v>
       </c>
       <c r="S88">
-        <v>0.71135476950492649</v>
+        <v>0.7772022249327416</v>
       </c>
       <c r="T88">
-        <v>0.69650350613238476</v>
+        <v>0.73978911186733876</v>
       </c>
     </row>
     <row r="89" spans="4:20" x14ac:dyDescent="0.25">
@@ -4747,16 +4747,16 @@
         <v>40</v>
       </c>
       <c r="Q89">
-        <v>88.690559606917006</v>
+        <v>97.615636813467248</v>
       </c>
       <c r="R89">
-        <v>0.43565886658418979</v>
+        <v>5.7302138429335507E-2</v>
       </c>
       <c r="S89">
-        <v>0.88690559606917019</v>
+        <v>0.97615636813467255</v>
       </c>
       <c r="T89">
-        <v>0.88209915271355521</v>
+        <v>0.97606128088823141</v>
       </c>
     </row>
     <row r="90" spans="4:20" x14ac:dyDescent="0.25">
@@ -4794,16 +4794,16 @@
         <v>41</v>
       </c>
       <c r="Q90">
-        <v>85.604719764011804</v>
+        <v>86.992188513741468</v>
       </c>
       <c r="R90">
-        <v>1.325977058839453</v>
+        <v>1.634325375585113</v>
       </c>
       <c r="S90">
-        <v>0.85604719764011805</v>
+        <v>0.86992188513741464</v>
       </c>
       <c r="T90">
-        <v>0.86162701997342261</v>
+        <v>0.87439305135210277</v>
       </c>
     </row>
     <row r="91" spans="4:20" x14ac:dyDescent="0.25">
@@ -4841,16 +4841,16 @@
         <v>42</v>
       </c>
       <c r="Q91">
-        <v>99.824046920821118</v>
+        <v>99.498525073746322</v>
       </c>
       <c r="R91">
-        <v>2.8779531076050531E-2</v>
+        <v>3.5153457936125197E-2</v>
       </c>
       <c r="S91">
-        <v>0.99824046920821119</v>
+        <v>0.99498525073746313</v>
       </c>
       <c r="T91">
-        <v>0.99824154244185936</v>
+        <v>0.9949677318727449</v>
       </c>
     </row>
     <row r="92" spans="4:20" x14ac:dyDescent="0.25">
@@ -4888,16 +4888,16 @@
         <v>43</v>
       </c>
       <c r="Q92">
-        <v>95.280235988200587</v>
+        <v>87.236481284440174</v>
       </c>
       <c r="R92">
-        <v>0.2147047461615367</v>
+        <v>0.7220555888250374</v>
       </c>
       <c r="S92">
-        <v>0.9528023598820059</v>
+        <v>0.8723648128444017</v>
       </c>
       <c r="T92">
-        <v>0.95226024348146932</v>
+        <v>0.86089691100533083</v>
       </c>
     </row>
     <row r="93" spans="4:20" x14ac:dyDescent="0.25">
@@ -4935,16 +4935,16 @@
         <v>44</v>
       </c>
       <c r="Q93">
-        <v>78.718501025095378</v>
+        <v>69.203020787377056</v>
       </c>
       <c r="R93">
-        <v>1.710184050305454</v>
+        <v>1.7212465739337379</v>
       </c>
       <c r="S93">
-        <v>0.78718501025095367</v>
+        <v>0.69203020787377056</v>
       </c>
       <c r="T93">
-        <v>0.77009053598078037</v>
+        <v>0.66708287524084953</v>
       </c>
     </row>
     <row r="94" spans="4:20" x14ac:dyDescent="0.25">
@@ -4982,16 +4982,16 @@
         <v>45</v>
       </c>
       <c r="Q94">
-        <v>79.026548672566378</v>
+        <v>87.138643067846601</v>
       </c>
       <c r="R94">
-        <v>3.496951787342788</v>
+        <v>2.883110474133471</v>
       </c>
       <c r="S94">
-        <v>0.79026548672566377</v>
+        <v>0.87138643067846611</v>
       </c>
       <c r="T94">
-        <v>0.77088634994025984</v>
+        <v>0.87736191921963214</v>
       </c>
     </row>
     <row r="95" spans="4:20" x14ac:dyDescent="0.25">
@@ -5029,16 +5029,16 @@
         <v>46</v>
       </c>
       <c r="Q95">
-        <v>87.345132743362825</v>
+        <v>86.106194690265482</v>
       </c>
       <c r="R95">
-        <v>1.32311449088013</v>
+        <v>2.2514934055168561</v>
       </c>
       <c r="S95">
-        <v>0.8734513274336283</v>
+        <v>0.86106194690265492</v>
       </c>
       <c r="T95">
-        <v>0.86389005499497562</v>
+        <v>0.84814654625474817</v>
       </c>
     </row>
     <row r="96" spans="4:20" x14ac:dyDescent="0.25">
@@ -5076,16 +5076,16 @@
         <v>47</v>
       </c>
       <c r="Q96">
-        <v>75.28949212363429</v>
+        <v>73.020527859237546</v>
       </c>
       <c r="R96">
-        <v>0.93637939936160808</v>
+        <v>1.4199484928367241</v>
       </c>
       <c r="S96">
-        <v>0.75289492123634294</v>
+        <v>0.73020527859237538</v>
       </c>
       <c r="T96">
-        <v>0.70640559176480144</v>
+        <v>0.69571433898031609</v>
       </c>
     </row>
     <row r="97" spans="4:20" x14ac:dyDescent="0.25">
@@ -5123,16 +5123,16 @@
         <v>48</v>
       </c>
       <c r="Q97">
-        <v>77.935103244837762</v>
+        <v>75.819254491820871</v>
       </c>
       <c r="R97">
-        <v>0.75736228954122098</v>
+        <v>1.8776351580096799</v>
       </c>
       <c r="S97">
-        <v>0.77935103244837756</v>
+        <v>0.75819254491820864</v>
       </c>
       <c r="T97">
-        <v>0.74274563878825373</v>
+        <v>0.70832957298483123</v>
       </c>
     </row>
     <row r="98" spans="4:20" x14ac:dyDescent="0.25">
@@ -5170,16 +5170,16 @@
         <v>49</v>
       </c>
       <c r="Q98">
-        <v>99.47214076246334</v>
+        <v>86.800750871547336</v>
       </c>
       <c r="R98">
-        <v>9.6847443785925517E-3</v>
+        <v>0.85256873644542197</v>
       </c>
       <c r="S98">
-        <v>0.99472140762463346</v>
+        <v>0.86800750871547339</v>
       </c>
       <c r="T98">
-        <v>0.99472526467841094</v>
+        <v>0.84129243798712028</v>
       </c>
     </row>
     <row r="99" spans="4:20" x14ac:dyDescent="0.25">
@@ -5202,17 +5202,11 @@
       </c>
       <c r="Q99">
         <f>AVERAGE(Q54:Q98)</f>
-        <v>82.194611448964849</v>
+        <v>80.921584288983667</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="S52:T52"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="S2:T2"/>
@@ -5220,6 +5214,12 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="S52:T52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5230,7 +5230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D036BE2-578A-434B-9121-F99339399A5A}">
   <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -9687,6 +9687,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -9695,11 +9700,6 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14167,11 +14167,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -14180,6 +14175,11 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14190,7 +14190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -14475,16 +14475,16 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>32.146731373108757</v>
+        <v>26.095035424181869</v>
       </c>
       <c r="L4">
-        <v>8.2703852913821567</v>
+        <v>6.6360217154026033</v>
       </c>
       <c r="M4">
-        <v>0.32146731373108761</v>
+        <v>0.26095035424181873</v>
       </c>
       <c r="N4">
-        <v>0.17978975418954521</v>
+        <v>0.16357030180330329</v>
       </c>
       <c r="P4" t="s">
         <v>5</v>
@@ -14573,16 +14573,16 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>50.79386499883217</v>
+        <v>52.573811192138344</v>
       </c>
       <c r="L5">
-        <v>2.9245147777827678</v>
+        <v>2.4471324447550589</v>
       </c>
       <c r="M5">
-        <v>0.50793864998832172</v>
+        <v>0.52573811192138342</v>
       </c>
       <c r="N5">
-        <v>0.3980725976767151</v>
+        <v>0.4286911503108321</v>
       </c>
       <c r="P5" t="s">
         <v>6</v>
@@ -14665,16 +14665,16 @@
         <v>7</v>
       </c>
       <c r="K6">
-        <v>67.057587003347777</v>
+        <v>66.152994403065776</v>
       </c>
       <c r="L6">
-        <v>19.065013493942871</v>
+        <v>35.177812273718637</v>
       </c>
       <c r="M6">
-        <v>0.67057587003347785</v>
+        <v>0.66152994403065768</v>
       </c>
       <c r="N6">
-        <v>0.62131994079220498</v>
+        <v>0.62028219480450919</v>
       </c>
       <c r="P6" t="s">
         <v>7</v>
@@ -14757,16 +14757,16 @@
         <v>8</v>
       </c>
       <c r="K7">
-        <v>59.117898943762476</v>
+        <v>57.60992742151749</v>
       </c>
       <c r="L7">
-        <v>2.223138388362683</v>
+        <v>2.4528956392096122</v>
       </c>
       <c r="M7">
-        <v>0.59117898943762492</v>
+        <v>0.57609927421517493</v>
       </c>
       <c r="N7">
-        <v>0.56826545649876747</v>
+        <v>0.55365409731529525</v>
       </c>
       <c r="P7" t="s">
         <v>8</v>
@@ -14849,16 +14849,16 @@
         <v>9</v>
       </c>
       <c r="K8">
-        <v>61.347329994204109</v>
+        <v>43.09423091895259</v>
       </c>
       <c r="L8">
-        <v>3.041629327804185</v>
+        <v>2.5452294551666239</v>
       </c>
       <c r="M8">
-        <v>0.61347329994204103</v>
+        <v>0.43094230918952581</v>
       </c>
       <c r="N8">
-        <v>0.5562525247779303</v>
+        <v>0.33102013490686938</v>
       </c>
       <c r="P8" t="s">
         <v>9</v>
@@ -14941,16 +14941,16 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>93.102016453429528</v>
+        <v>85.962335314319333</v>
       </c>
       <c r="L9">
-        <v>0.29857158687014668</v>
+        <v>0.54332699125272654</v>
       </c>
       <c r="M9">
-        <v>0.93102016453429537</v>
+        <v>0.85962335314319327</v>
       </c>
       <c r="N9">
-        <v>0.93111692264375168</v>
+        <v>0.8533067929317415</v>
       </c>
       <c r="P9" t="s">
         <v>10</v>
@@ -15033,16 +15033,16 @@
         <v>11</v>
       </c>
       <c r="K10">
-        <v>80.929333298730953</v>
+        <v>79.873441811780381</v>
       </c>
       <c r="L10">
-        <v>2.460992548287789</v>
+        <v>1.229929539777519</v>
       </c>
       <c r="M10">
-        <v>0.80929333298730965</v>
+        <v>0.79873441811780377</v>
       </c>
       <c r="N10">
-        <v>0.77212310788540006</v>
+        <v>0.76381110217586412</v>
       </c>
       <c r="P10" t="s">
         <v>11</v>
@@ -15125,16 +15125,16 @@
         <v>12</v>
       </c>
       <c r="K11">
-        <v>88.73891642661269</v>
+        <v>82.813519148089512</v>
       </c>
       <c r="L11">
-        <v>1.0105976304132269</v>
+        <v>2.4225514201219909</v>
       </c>
       <c r="M11">
-        <v>0.88738916426612691</v>
+        <v>0.82813519148089509</v>
       </c>
       <c r="N11">
-        <v>0.86949928604238347</v>
+        <v>0.80386047351513701</v>
       </c>
       <c r="P11" t="s">
         <v>12</v>
@@ -15217,16 +15217,16 @@
         <v>13</v>
       </c>
       <c r="K12">
-        <v>79.394717947387079</v>
+        <v>85.17262260054153</v>
       </c>
       <c r="L12">
-        <v>1.3341127731361131</v>
+        <v>1.3150464649252669</v>
       </c>
       <c r="M12">
-        <v>0.79394717947387083</v>
+        <v>0.85172622600541525</v>
       </c>
       <c r="N12">
-        <v>0.77364706069648381</v>
+        <v>0.83158752018947157</v>
       </c>
       <c r="P12" t="s">
         <v>13</v>
@@ -15309,16 +15309,16 @@
         <v>14</v>
       </c>
       <c r="K13">
-        <v>91.574321577176278</v>
+        <v>86.355677817282157</v>
       </c>
       <c r="L13">
-        <v>0.59570969136362684</v>
+        <v>0.78182809102508033</v>
       </c>
       <c r="M13">
-        <v>0.91574321577176276</v>
+        <v>0.86355677817282162</v>
       </c>
       <c r="N13">
-        <v>0.9129277405945132</v>
+        <v>0.85636005579308727</v>
       </c>
       <c r="P13" t="s">
         <v>14</v>
@@ -15401,16 +15401,16 @@
         <v>15</v>
       </c>
       <c r="K14">
-        <v>79.177155511725886</v>
+        <v>86.78466076696165</v>
       </c>
       <c r="L14">
-        <v>1.3325729599778631</v>
+        <v>1.3373674401971469</v>
       </c>
       <c r="M14">
-        <v>0.79177155511725883</v>
+        <v>0.86784660766961663</v>
       </c>
       <c r="N14">
-        <v>0.7839046618164065</v>
+        <v>0.85996309863337095</v>
       </c>
       <c r="P14" t="s">
         <v>15</v>
@@ -15493,16 +15493,16 @@
         <v>16</v>
       </c>
       <c r="K15">
-        <v>91.268436578171091</v>
+        <v>86.183530999403104</v>
       </c>
       <c r="L15">
-        <v>0.93978581419711882</v>
+        <v>1.451211954720901</v>
       </c>
       <c r="M15">
-        <v>0.91268436578171086</v>
+        <v>0.86183530999403113</v>
       </c>
       <c r="N15">
-        <v>0.89974995936388458</v>
+        <v>0.85365474054557899</v>
       </c>
       <c r="P15" t="s">
         <v>16</v>
@@ -15585,16 +15585,16 @@
         <v>17</v>
       </c>
       <c r="K16">
-        <v>86.165191740412979</v>
+        <v>87.846607669616517</v>
       </c>
       <c r="L16">
-        <v>0.97627342006590678</v>
+        <v>1.5474847130739799</v>
       </c>
       <c r="M16">
-        <v>0.86165191740412972</v>
+        <v>0.87846607669616517</v>
       </c>
       <c r="N16">
-        <v>0.83590143759727076</v>
+        <v>0.85650897867553044</v>
       </c>
       <c r="P16" t="s">
         <v>17</v>
@@ -15677,16 +15677,16 @@
         <v>18</v>
       </c>
       <c r="K17">
-        <v>75.811209439528028</v>
+        <v>82.743362831858406</v>
       </c>
       <c r="L17">
-        <v>1.2913160530185841</v>
+        <v>1.6682141418153911</v>
       </c>
       <c r="M17">
-        <v>0.75811209439528027</v>
+        <v>0.82743362831858414</v>
       </c>
       <c r="N17">
-        <v>0.75024494432633915</v>
+        <v>0.80667417661014584</v>
       </c>
       <c r="P17" t="s">
         <v>18</v>
@@ -15769,16 +15769,16 @@
         <v>19</v>
       </c>
       <c r="K18">
-        <v>84.660766961651916</v>
+        <v>83.043538438913828</v>
       </c>
       <c r="L18">
-        <v>0.78407385950993858</v>
+        <v>0.55502281371983653</v>
       </c>
       <c r="M18">
-        <v>0.84660766961651923</v>
+        <v>0.83043538438913844</v>
       </c>
       <c r="N18">
-        <v>0.82564947303725056</v>
+        <v>0.80843702243427606</v>
       </c>
       <c r="P18" t="s">
         <v>19</v>
@@ -15861,16 +15861,16 @@
         <v>20</v>
       </c>
       <c r="K19">
-        <v>66.388809591778482</v>
+        <v>65.814756183011966</v>
       </c>
       <c r="L19">
-        <v>5.4448807199734794</v>
+        <v>5.6400054578772938</v>
       </c>
       <c r="M19">
-        <v>0.66388809591778475</v>
+        <v>0.65814756183011958</v>
       </c>
       <c r="N19">
-        <v>0.63760777679330971</v>
+        <v>0.64559365913480904</v>
       </c>
       <c r="P19" t="s">
         <v>20</v>
@@ -15953,16 +15953,16 @@
         <v>21</v>
       </c>
       <c r="K20">
-        <v>95.693215339233035</v>
+        <v>95.014749262536867</v>
       </c>
       <c r="L20">
-        <v>0.52467311162829344</v>
+        <v>0.3479957232430308</v>
       </c>
       <c r="M20">
-        <v>0.9569321533923304</v>
+        <v>0.95014749262536868</v>
       </c>
       <c r="N20">
-        <v>0.95202338433413336</v>
+        <v>0.94637859347959541</v>
       </c>
       <c r="P20" t="s">
         <v>21</v>
@@ -16045,16 +16045,16 @@
         <v>22</v>
       </c>
       <c r="K21">
-        <v>88.221524407650591</v>
+        <v>92.452356854298046</v>
       </c>
       <c r="L21">
-        <v>4.3336337218596164</v>
+        <v>1.1845359226696059</v>
       </c>
       <c r="M21">
-        <v>0.88221524407650587</v>
+        <v>0.92452356854298046</v>
       </c>
       <c r="N21">
-        <v>0.85456583544540943</v>
+        <v>0.90150883318456343</v>
       </c>
       <c r="P21" t="s">
         <v>22</v>
@@ -16137,16 +16137,16 @@
         <v>23</v>
       </c>
       <c r="K22">
-        <v>62.419744115433517</v>
+        <v>58.382165935691482</v>
       </c>
       <c r="L22">
-        <v>14.72940313450956</v>
+        <v>15.02756629641279</v>
       </c>
       <c r="M22">
-        <v>0.62419744115433518</v>
+        <v>0.58382165935691488</v>
       </c>
       <c r="N22">
-        <v>0.55529428814895443</v>
+        <v>0.51368254555906623</v>
       </c>
       <c r="P22" t="s">
         <v>23</v>
@@ -16229,16 +16229,16 @@
         <v>24</v>
       </c>
       <c r="K23">
-        <v>93.659720239794453</v>
+        <v>93.126843657817105</v>
       </c>
       <c r="L23">
-        <v>0.43836539303543293</v>
+        <v>1.63582834974545</v>
       </c>
       <c r="M23">
-        <v>0.93659720239794453</v>
+        <v>0.93126843657817115</v>
       </c>
       <c r="N23">
-        <v>0.93103790048814206</v>
+        <v>0.90916487100606691</v>
       </c>
       <c r="P23" t="s">
         <v>24</v>
@@ -16321,16 +16321,16 @@
         <v>25</v>
       </c>
       <c r="K24">
-        <v>67.705343471829337</v>
+        <v>62.100364190001642</v>
       </c>
       <c r="L24">
-        <v>2.4068033331057972</v>
+        <v>2.1994846734467841</v>
       </c>
       <c r="M24">
-        <v>0.67705343471829349</v>
+        <v>0.62100364190001645</v>
       </c>
       <c r="N24">
-        <v>0.62744648909832546</v>
+        <v>0.58867489603643752</v>
       </c>
       <c r="P24" t="s">
         <v>25</v>
@@ -16413,16 +16413,16 @@
         <v>26</v>
       </c>
       <c r="K25">
-        <v>81.858407079646014</v>
+        <v>85.044247787610615</v>
       </c>
       <c r="L25">
-        <v>1.5695808861244791</v>
+        <v>0.99586064379672146</v>
       </c>
       <c r="M25">
-        <v>0.81858407079646012</v>
+        <v>0.85044247787610627</v>
       </c>
       <c r="N25">
-        <v>0.80088068256081313</v>
+        <v>0.82605717480383389</v>
       </c>
       <c r="P25" t="s">
         <v>26</v>
@@ -16505,16 +16505,16 @@
         <v>27</v>
       </c>
       <c r="K26">
-        <v>91.587816503602966</v>
+        <v>90.95312243185495</v>
       </c>
       <c r="L26">
-        <v>0.34433096007296088</v>
+        <v>0.38909375793918938</v>
       </c>
       <c r="M26">
-        <v>0.9158781650360297</v>
+        <v>0.90953122431854949</v>
       </c>
       <c r="N26">
-        <v>0.91087306200108142</v>
+        <v>0.9067511894254473</v>
       </c>
       <c r="P26" t="s">
         <v>27</v>
@@ -16597,16 +16597,16 @@
         <v>28</v>
       </c>
       <c r="K27">
-        <v>91.681415929203538</v>
+        <v>91.061946902654867</v>
       </c>
       <c r="L27">
-        <v>1.018010680576579</v>
+        <v>0.97594681795005145</v>
       </c>
       <c r="M27">
-        <v>0.91681415929203536</v>
+        <v>0.91061946902654856</v>
       </c>
       <c r="N27">
-        <v>0.89490836858028611</v>
+        <v>0.88866805511533065</v>
       </c>
       <c r="P27" t="s">
         <v>28</v>
@@ -16689,16 +16689,16 @@
         <v>29</v>
       </c>
       <c r="K28">
-        <v>90.678466076696168</v>
+        <v>86.94997361568872</v>
       </c>
       <c r="L28">
-        <v>0.59061590583961121</v>
+        <v>0.60684125696928548</v>
       </c>
       <c r="M28">
-        <v>0.90678466076696174</v>
+        <v>0.86949973615688714</v>
       </c>
       <c r="N28">
-        <v>0.89976743843762319</v>
+        <v>0.8598908835930047</v>
       </c>
       <c r="P28" t="s">
         <v>29</v>
@@ -16781,16 +16781,16 @@
         <v>30</v>
       </c>
       <c r="K29">
-        <v>90.914454277286126</v>
+        <v>90.009688665126859</v>
       </c>
       <c r="L29">
-        <v>0.89200673385068929</v>
+        <v>0.960440194540787</v>
       </c>
       <c r="M29">
-        <v>0.90914454277286139</v>
+        <v>0.90009688665126864</v>
       </c>
       <c r="N29">
-        <v>0.88211012661567967</v>
+        <v>0.8765712464510399</v>
       </c>
       <c r="P29" t="s">
         <v>30</v>
@@ -16873,16 +16873,16 @@
         <v>31</v>
       </c>
       <c r="K30">
-        <v>95.899705014749259</v>
+        <v>95.907836572980742</v>
       </c>
       <c r="L30">
-        <v>8.6716442872406277E-2</v>
+        <v>0.1084223422628308</v>
       </c>
       <c r="M30">
-        <v>0.9589970501474927</v>
+        <v>0.95907836572980742</v>
       </c>
       <c r="N30">
-        <v>0.95560968669821733</v>
+        <v>0.95744041036451077</v>
       </c>
       <c r="P30" t="s">
         <v>31</v>
@@ -16965,16 +16965,16 @@
         <v>32</v>
       </c>
       <c r="K31">
-        <v>84.178842377529207</v>
+        <v>79.391690239534938</v>
       </c>
       <c r="L31">
-        <v>0.67175331592111531</v>
+        <v>2.550652983060766</v>
       </c>
       <c r="M31">
-        <v>0.84178842377529217</v>
+        <v>0.79391690239534951</v>
       </c>
       <c r="N31">
-        <v>0.82732164909290962</v>
+        <v>0.74747640709686447</v>
       </c>
       <c r="P31" t="s">
         <v>32</v>
@@ -17057,16 +17057,16 @@
         <v>33</v>
       </c>
       <c r="K32">
-        <v>74.626683621830637</v>
+        <v>77.488732601493098</v>
       </c>
       <c r="L32">
-        <v>1.487248145769249</v>
+        <v>0.82620364273339941</v>
       </c>
       <c r="M32">
-        <v>0.74626683621830636</v>
+        <v>0.77488732601493093</v>
       </c>
       <c r="N32">
-        <v>0.73476032276247982</v>
+        <v>0.75964628585408822</v>
       </c>
       <c r="P32" t="s">
         <v>33</v>
@@ -17149,16 +17149,16 @@
         <v>34</v>
       </c>
       <c r="K33">
-        <v>89.823008849557525</v>
+        <v>82.507374631268434</v>
       </c>
       <c r="L33">
-        <v>1.1462513316933549</v>
+        <v>1.4128568963950869</v>
       </c>
       <c r="M33">
-        <v>0.89823008849557517</v>
+        <v>0.82507374631268449</v>
       </c>
       <c r="N33">
-        <v>0.89636848754452081</v>
+        <v>0.80115117890925958</v>
       </c>
       <c r="P33" t="s">
         <v>34</v>
@@ -17241,16 +17241,16 @@
         <v>35</v>
       </c>
       <c r="K34">
-        <v>89.476639071272245</v>
+        <v>92.510315833181949</v>
       </c>
       <c r="L34">
-        <v>0.57167123049744828</v>
+        <v>0.44888073911521381</v>
       </c>
       <c r="M34">
-        <v>0.89476639071272235</v>
+        <v>0.92510315833181944</v>
       </c>
       <c r="N34">
-        <v>0.87426018671774375</v>
+        <v>0.92305743112136951</v>
       </c>
       <c r="P34" t="s">
         <v>35</v>
@@ -17333,16 +17333,16 @@
         <v>36</v>
       </c>
       <c r="K35">
-        <v>99.233038348082601</v>
+        <v>97.345132743362825</v>
       </c>
       <c r="L35">
-        <v>3.5747345873378578E-2</v>
+        <v>5.7781885212892369E-2</v>
       </c>
       <c r="M35">
-        <v>0.99233038348082592</v>
+        <v>0.97345132743362828</v>
       </c>
       <c r="N35">
-        <v>0.99230479934947535</v>
+        <v>0.97306391900434142</v>
       </c>
       <c r="P35" t="s">
         <v>36</v>
@@ -17425,16 +17425,16 @@
         <v>37</v>
       </c>
       <c r="K36">
-        <v>94.513274336283189</v>
+        <v>97.079646017699105</v>
       </c>
       <c r="L36">
-        <v>0.77045469125687105</v>
+        <v>0.66540763231848055</v>
       </c>
       <c r="M36">
-        <v>0.94513274336283182</v>
+        <v>0.97079646017699106</v>
       </c>
       <c r="N36">
-        <v>0.94251745372032636</v>
+        <v>0.96939811710802704</v>
       </c>
       <c r="P36" t="s">
         <v>37</v>
@@ -17517,16 +17517,16 @@
         <v>38</v>
       </c>
       <c r="K37">
-        <v>90.589970501474937</v>
+        <v>88.873606173063791</v>
       </c>
       <c r="L37">
-        <v>0.54129509043753465</v>
+        <v>0.53196490681579023</v>
       </c>
       <c r="M37">
-        <v>0.90589970501474926</v>
+        <v>0.88873606173063779</v>
       </c>
       <c r="N37">
-        <v>0.89737141411342125</v>
+        <v>0.88615381738233145</v>
       </c>
       <c r="P37" t="s">
         <v>38</v>
@@ -17609,16 +17609,16 @@
         <v>39</v>
       </c>
       <c r="K38">
-        <v>71.135476950492645</v>
+        <v>77.720222493274164</v>
       </c>
       <c r="L38">
-        <v>1.3638609063724281</v>
+        <v>1.226761607446103</v>
       </c>
       <c r="M38">
-        <v>0.71135476950492649</v>
+        <v>0.7772022249327416</v>
       </c>
       <c r="N38">
-        <v>0.69650350613238476</v>
+        <v>0.73978911186733876</v>
       </c>
       <c r="P38" t="s">
         <v>39</v>
@@ -17701,16 +17701,16 @@
         <v>40</v>
       </c>
       <c r="K39">
-        <v>88.690559606917006</v>
+        <v>97.615636813467248</v>
       </c>
       <c r="L39">
-        <v>0.43565886658418979</v>
+        <v>5.7302138429335507E-2</v>
       </c>
       <c r="M39">
-        <v>0.88690559606917019</v>
+        <v>0.97615636813467255</v>
       </c>
       <c r="N39">
-        <v>0.88209915271355521</v>
+        <v>0.97606128088823141</v>
       </c>
       <c r="P39" t="s">
         <v>40</v>
@@ -17793,16 +17793,16 @@
         <v>41</v>
       </c>
       <c r="K40">
-        <v>85.604719764011804</v>
+        <v>86.992188513741468</v>
       </c>
       <c r="L40">
-        <v>1.325977058839453</v>
+        <v>1.634325375585113</v>
       </c>
       <c r="M40">
-        <v>0.85604719764011805</v>
+        <v>0.86992188513741464</v>
       </c>
       <c r="N40">
-        <v>0.86162701997342261</v>
+        <v>0.87439305135210277</v>
       </c>
       <c r="P40" t="s">
         <v>41</v>
@@ -17885,16 +17885,16 @@
         <v>42</v>
       </c>
       <c r="K41">
-        <v>99.824046920821118</v>
+        <v>99.498525073746322</v>
       </c>
       <c r="L41">
-        <v>2.8779531076050531E-2</v>
+        <v>3.5153457936125197E-2</v>
       </c>
       <c r="M41">
-        <v>0.99824046920821119</v>
+        <v>0.99498525073746313</v>
       </c>
       <c r="N41">
-        <v>0.99824154244185936</v>
+        <v>0.9949677318727449</v>
       </c>
       <c r="P41" t="s">
         <v>42</v>
@@ -17977,16 +17977,16 @@
         <v>43</v>
       </c>
       <c r="K42">
-        <v>95.280235988200587</v>
+        <v>87.236481284440174</v>
       </c>
       <c r="L42">
-        <v>0.2147047461615367</v>
+        <v>0.7220555888250374</v>
       </c>
       <c r="M42">
-        <v>0.9528023598820059</v>
+        <v>0.8723648128444017</v>
       </c>
       <c r="N42">
-        <v>0.95226024348146932</v>
+        <v>0.86089691100533083</v>
       </c>
       <c r="P42" t="s">
         <v>43</v>
@@ -18069,16 +18069,16 @@
         <v>44</v>
       </c>
       <c r="K43">
-        <v>78.718501025095378</v>
+        <v>69.203020787377056</v>
       </c>
       <c r="L43">
-        <v>1.710184050305454</v>
+        <v>1.7212465739337379</v>
       </c>
       <c r="M43">
-        <v>0.78718501025095367</v>
+        <v>0.69203020787377056</v>
       </c>
       <c r="N43">
-        <v>0.77009053598078037</v>
+        <v>0.66708287524084953</v>
       </c>
       <c r="P43" t="s">
         <v>44</v>
@@ -18161,16 +18161,16 @@
         <v>45</v>
       </c>
       <c r="K44">
-        <v>79.026548672566378</v>
+        <v>87.138643067846601</v>
       </c>
       <c r="L44">
-        <v>3.496951787342788</v>
+        <v>2.883110474133471</v>
       </c>
       <c r="M44">
-        <v>0.79026548672566377</v>
+        <v>0.87138643067846611</v>
       </c>
       <c r="N44">
-        <v>0.77088634994025984</v>
+        <v>0.87736191921963214</v>
       </c>
       <c r="P44" t="s">
         <v>45</v>
@@ -18253,16 +18253,16 @@
         <v>46</v>
       </c>
       <c r="K45">
-        <v>87.345132743362825</v>
+        <v>86.106194690265482</v>
       </c>
       <c r="L45">
-        <v>1.32311449088013</v>
+        <v>2.2514934055168561</v>
       </c>
       <c r="M45">
-        <v>0.8734513274336283</v>
+        <v>0.86106194690265492</v>
       </c>
       <c r="N45">
-        <v>0.86389005499497562</v>
+        <v>0.84814654625474817</v>
       </c>
       <c r="P45" t="s">
         <v>46</v>
@@ -18345,16 +18345,16 @@
         <v>47</v>
       </c>
       <c r="K46">
-        <v>75.28949212363429</v>
+        <v>73.020527859237546</v>
       </c>
       <c r="L46">
-        <v>0.93637939936160808</v>
+        <v>1.4199484928367241</v>
       </c>
       <c r="M46">
-        <v>0.75289492123634294</v>
+        <v>0.73020527859237538</v>
       </c>
       <c r="N46">
-        <v>0.70640559176480144</v>
+        <v>0.69571433898031609</v>
       </c>
       <c r="P46" t="s">
         <v>47</v>
@@ -18437,16 +18437,16 @@
         <v>48</v>
       </c>
       <c r="K47">
-        <v>77.935103244837762</v>
+        <v>75.819254491820871</v>
       </c>
       <c r="L47">
-        <v>0.75736228954122098</v>
+        <v>1.8776351580096799</v>
       </c>
       <c r="M47">
-        <v>0.77935103244837756</v>
+        <v>0.75819254491820864</v>
       </c>
       <c r="N47">
-        <v>0.74274563878825373</v>
+        <v>0.70832957298483123</v>
       </c>
       <c r="P47" t="s">
         <v>48</v>
@@ -18529,16 +18529,16 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>99.47214076246334</v>
+        <v>86.800750871547336</v>
       </c>
       <c r="L48">
-        <v>9.6847443785925517E-3</v>
+        <v>0.85256873644542197</v>
       </c>
       <c r="M48">
-        <v>0.99472140762463346</v>
+        <v>0.86800750871547339</v>
       </c>
       <c r="N48">
-        <v>0.99472526467841094</v>
+        <v>0.84129243798712028</v>
       </c>
       <c r="P48" t="s">
         <v>49</v>
@@ -18614,7 +18614,7 @@
       </c>
       <c r="K49">
         <f>AVERAGE(K4:K48)</f>
-        <v>82.194611448964849</v>
+        <v>80.921584288983667</v>
       </c>
       <c r="P49" t="s">
         <v>50</v>
@@ -18670,7 +18670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D57D433-CB94-4C35-BE52-A3A017F607FF}">
   <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -23127,11 +23127,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -23140,6 +23135,11 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24232,6 +24232,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -24240,11 +24245,6 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Results/summary_psdLDS_5_fold_eva.xlsx
+++ b/Results/summary_psdLDS_5_fold_eva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\channelmatrix_2d\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21418FCF-2873-4C7D-9A93-C7E07234316C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FF335A-CA56-4390-B2B1-A7F20D95C7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="2" r:id="rId1"/>
@@ -5208,12 +5208,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="S52:T52"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="S2:T2"/>
@@ -5221,6 +5215,12 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="S52:T52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9776,6 +9776,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -9784,11 +9789,6 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14344,11 +14344,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -14357,6 +14352,11 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23480,11 +23480,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -23493,6 +23488,11 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24673,6 +24673,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -24681,11 +24686,6 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
